--- a/data/136/BOI/Current Account Services_historical.xlsx
+++ b/data/136/BOI/Current Account Services_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Account Services" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,731 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
-  <si>
-    <t>1970-Q1</t>
-  </si>
-  <si>
-    <t>1970-Q2</t>
-  </si>
-  <si>
-    <t>1970-Q3</t>
-  </si>
-  <si>
-    <t>1970-Q4</t>
-  </si>
-  <si>
-    <t>1971-Q1</t>
-  </si>
-  <si>
-    <t>1971-Q2</t>
-  </si>
-  <si>
-    <t>1971-Q3</t>
-  </si>
-  <si>
-    <t>1971-Q4</t>
-  </si>
-  <si>
-    <t>1972-Q1</t>
-  </si>
-  <si>
-    <t>1972-Q2</t>
-  </si>
-  <si>
-    <t>1972-Q3</t>
-  </si>
-  <si>
-    <t>1972-Q4</t>
-  </si>
-  <si>
-    <t>1973-Q1</t>
-  </si>
-  <si>
-    <t>1973-Q2</t>
-  </si>
-  <si>
-    <t>1973-Q3</t>
-  </si>
-  <si>
-    <t>1973-Q4</t>
-  </si>
-  <si>
-    <t>1974-Q1</t>
-  </si>
-  <si>
-    <t>1974-Q2</t>
-  </si>
-  <si>
-    <t>1974-Q3</t>
-  </si>
-  <si>
-    <t>1974-Q4</t>
-  </si>
-  <si>
-    <t>1975-Q1</t>
-  </si>
-  <si>
-    <t>1975-Q2</t>
-  </si>
-  <si>
-    <t>1975-Q3</t>
-  </si>
-  <si>
-    <t>1975-Q4</t>
-  </si>
-  <si>
-    <t>1976-Q1</t>
-  </si>
-  <si>
-    <t>1976-Q2</t>
-  </si>
-  <si>
-    <t>1976-Q3</t>
-  </si>
-  <si>
-    <t>1976-Q4</t>
-  </si>
-  <si>
-    <t>1977-Q1</t>
-  </si>
-  <si>
-    <t>1977-Q2</t>
-  </si>
-  <si>
-    <t>1977-Q3</t>
-  </si>
-  <si>
-    <t>1977-Q4</t>
-  </si>
-  <si>
-    <t>1978-Q1</t>
-  </si>
-  <si>
-    <t>1978-Q2</t>
-  </si>
-  <si>
-    <t>1978-Q3</t>
-  </si>
-  <si>
-    <t>1978-Q4</t>
-  </si>
-  <si>
-    <t>1979-Q1</t>
-  </si>
-  <si>
-    <t>1979-Q2</t>
-  </si>
-  <si>
-    <t>1979-Q3</t>
-  </si>
-  <si>
-    <t>1979-Q4</t>
-  </si>
-  <si>
-    <t>1980-Q1</t>
-  </si>
-  <si>
-    <t>1980-Q2</t>
-  </si>
-  <si>
-    <t>1980-Q3</t>
-  </si>
-  <si>
-    <t>1980-Q4</t>
-  </si>
-  <si>
-    <t>1981-Q1</t>
-  </si>
-  <si>
-    <t>1981-Q2</t>
-  </si>
-  <si>
-    <t>1981-Q3</t>
-  </si>
-  <si>
-    <t>1981-Q4</t>
-  </si>
-  <si>
-    <t>1982-Q1</t>
-  </si>
-  <si>
-    <t>1982-Q2</t>
-  </si>
-  <si>
-    <t>1982-Q3</t>
-  </si>
-  <si>
-    <t>1982-Q4</t>
-  </si>
-  <si>
-    <t>1983-Q1</t>
-  </si>
-  <si>
-    <t>1983-Q2</t>
-  </si>
-  <si>
-    <t>1983-Q3</t>
-  </si>
-  <si>
-    <t>1983-Q4</t>
-  </si>
-  <si>
-    <t>1984-Q1</t>
-  </si>
-  <si>
-    <t>1984-Q2</t>
-  </si>
-  <si>
-    <t>1984-Q3</t>
-  </si>
-  <si>
-    <t>1984-Q4</t>
-  </si>
-  <si>
-    <t>1985-Q1</t>
-  </si>
-  <si>
-    <t>1985-Q2</t>
-  </si>
-  <si>
-    <t>1985-Q3</t>
-  </si>
-  <si>
-    <t>1985-Q4</t>
-  </si>
-  <si>
-    <t>1986-Q1</t>
-  </si>
-  <si>
-    <t>1986-Q2</t>
-  </si>
-  <si>
-    <t>1986-Q3</t>
-  </si>
-  <si>
-    <t>1986-Q4</t>
-  </si>
-  <si>
-    <t>1987-Q1</t>
-  </si>
-  <si>
-    <t>1987-Q2</t>
-  </si>
-  <si>
-    <t>1987-Q3</t>
-  </si>
-  <si>
-    <t>1987-Q4</t>
-  </si>
-  <si>
-    <t>1988-Q1</t>
-  </si>
-  <si>
-    <t>1988-Q2</t>
-  </si>
-  <si>
-    <t>1988-Q3</t>
-  </si>
-  <si>
-    <t>1988-Q4</t>
-  </si>
-  <si>
-    <t>1989-Q1</t>
-  </si>
-  <si>
-    <t>1989-Q2</t>
-  </si>
-  <si>
-    <t>1989-Q3</t>
-  </si>
-  <si>
-    <t>1989-Q4</t>
-  </si>
-  <si>
-    <t>1990-Q1</t>
-  </si>
-  <si>
-    <t>1990-Q2</t>
-  </si>
-  <si>
-    <t>1990-Q3</t>
-  </si>
-  <si>
-    <t>1990-Q4</t>
-  </si>
-  <si>
-    <t>1991-Q1</t>
-  </si>
-  <si>
-    <t>1991-Q2</t>
-  </si>
-  <si>
-    <t>1991-Q3</t>
-  </si>
-  <si>
-    <t>1991-Q4</t>
-  </si>
-  <si>
-    <t>1992-Q1</t>
-  </si>
-  <si>
-    <t>1992-Q2</t>
-  </si>
-  <si>
-    <t>1992-Q3</t>
-  </si>
-  <si>
-    <t>1992-Q4</t>
-  </si>
-  <si>
-    <t>1993-Q1</t>
-  </si>
-  <si>
-    <t>1993-Q2</t>
-  </si>
-  <si>
-    <t>1993-Q3</t>
-  </si>
-  <si>
-    <t>1993-Q4</t>
-  </si>
-  <si>
-    <t>1994-Q1</t>
-  </si>
-  <si>
-    <t>1994-Q2</t>
-  </si>
-  <si>
-    <t>1994-Q3</t>
-  </si>
-  <si>
-    <t>1994-Q4</t>
-  </si>
-  <si>
-    <t>1995-Q1</t>
-  </si>
-  <si>
-    <t>1995-Q2</t>
-  </si>
-  <si>
-    <t>1995-Q3</t>
-  </si>
-  <si>
-    <t>1995-Q4</t>
-  </si>
-  <si>
-    <t>1996-Q1</t>
-  </si>
-  <si>
-    <t>1996-Q2</t>
-  </si>
-  <si>
-    <t>1996-Q3</t>
-  </si>
-  <si>
-    <t>1996-Q4</t>
-  </si>
-  <si>
-    <t>1997-Q1</t>
-  </si>
-  <si>
-    <t>1997-Q2</t>
-  </si>
-  <si>
-    <t>1997-Q3</t>
-  </si>
-  <si>
-    <t>1997-Q4</t>
-  </si>
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Services: transport - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Services: travel - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Services: construction - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Services: insurance and pension services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Services: financial services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Services: charges for the use of the intellectual property - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Services: telecommunications, computer and information services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Services: other business services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Services: personal, cultural and recreational services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Services: government goods and services n.i.e. - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Debits - Services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Services: transport - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Services: travel - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Services: construction - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Services: insurance and pension services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Services: financial services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Services: charges for the use of the intellectual property - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Services: telecommunications, computer and information services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Services: other business services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Services: personal, cultural and recreational services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Services: government goods and services n.i.e. - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Credits - Services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Services: transport - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Services: travel - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Services: construction - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Services: insurance and pension services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Services: financial services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Services: charges for the use of the intellectual property - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Services: telecommunications, computer and information services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Services: other business services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Services: personal, cultural and recreational services - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Services: government goods and services n.i.e. - Total economy</t>
-  </si>
-  <si>
-    <t>BOP - Balances - Services - Total economy</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1091,632 +366,1048 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:208">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>206</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1970-Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1970-Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1970-Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1970-Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1971-Q1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1971-Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1971-Q3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1971-Q4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1972-Q1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1972-Q2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1972-Q3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1972-Q4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1973-Q1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1973-Q2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1973-Q3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1973-Q4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1974-Q1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1974-Q2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1974-Q3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1974-Q4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1975-Q1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1975-Q2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1975-Q3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1975-Q4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1976-Q1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1976-Q2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1976-Q3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1976-Q4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1977-Q1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1977-Q2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1977-Q3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1977-Q4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1978-Q1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1978-Q2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1978-Q3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1978-Q4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1979-Q1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1979-Q2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1979-Q3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1979-Q4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1980-Q1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1980-Q2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1980-Q3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1980-Q4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q3</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q4</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q1</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q3</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q4</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q1</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q3</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q4</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q3</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q4</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q1</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q3</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q4</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q1</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q3</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q4</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q1</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q2</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q3</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q4</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q2</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q3</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q4</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q3</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q4</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q2</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q3</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q4</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:208">
-      <c r="A2" s="1" t="s">
-        <v>207</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Services: transport - Total economy</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>113.10406</v>
@@ -2181,7 +1872,7 @@
         <v>5453.93</v>
       </c>
       <c r="EZ2" t="n">
-        <v>5346.433000000001</v>
+        <v>5346.433</v>
       </c>
       <c r="FA2" t="n">
         <v>4428.975</v>
@@ -2208,10 +1899,10 @@
         <v>5361.231</v>
       </c>
       <c r="FI2" t="n">
-        <v>4828.657999999999</v>
+        <v>4828.658</v>
       </c>
       <c r="FJ2" t="n">
-        <v>4719.130999999999</v>
+        <v>4719.131</v>
       </c>
       <c r="FK2" t="n">
         <v>5138.286</v>
@@ -2241,7 +1932,7 @@
         <v>4807.032</v>
       </c>
       <c r="FT2" t="n">
-        <v>5525.088000000001</v>
+        <v>5525.088</v>
       </c>
       <c r="FU2" t="n">
         <v>4779.714</v>
@@ -2259,25 +1950,25 @@
         <v>4772.184</v>
       </c>
       <c r="FZ2" t="n">
-        <v>4992.585999999999</v>
+        <v>4992.586</v>
       </c>
       <c r="GA2" t="n">
         <v>5299.729</v>
       </c>
       <c r="GB2" t="n">
-        <v>5653.451999999999</v>
+        <v>5653.452</v>
       </c>
       <c r="GC2" t="n">
-        <v>5198.590999999999</v>
+        <v>5198.591</v>
       </c>
       <c r="GD2" t="n">
-        <v>4993.460999999999</v>
+        <v>4993.461</v>
       </c>
       <c r="GE2" t="n">
         <v>5365.495</v>
       </c>
       <c r="GF2" t="n">
-        <v>5435.133000000001</v>
+        <v>5435.133</v>
       </c>
       <c r="GG2" t="n">
         <v>5196.87</v>
@@ -2289,7 +1980,7 @@
         <v>5679.224</v>
       </c>
       <c r="GJ2" t="n">
-        <v>5879.831999999999</v>
+        <v>5879.832</v>
       </c>
       <c r="GK2" t="n">
         <v>5359.86</v>
@@ -2310,10 +2001,10 @@
         <v>5451.626</v>
       </c>
       <c r="GQ2" t="n">
-        <v>5868.058000000001</v>
+        <v>5868.058</v>
       </c>
       <c r="GR2" t="n">
-        <v>6256.585999999999</v>
+        <v>6256.586</v>
       </c>
       <c r="GS2" t="n">
         <v>5733.624</v>
@@ -2336,11 +2027,13 @@
       <c r="GY2" t="n">
         <v>4307.821</v>
       </c>
-      <c r="GZ2" t="s"/>
+      <c r="GZ2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:208">
-      <c r="A3" s="1" t="s">
-        <v>208</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Services: travel - Total economy</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>40.8001</v>
@@ -2808,7 +2501,7 @@
         <v>7707.235</v>
       </c>
       <c r="FA3" t="n">
-        <v>4186.382000000001</v>
+        <v>4186.382</v>
       </c>
       <c r="FB3" t="n">
         <v>4289.692</v>
@@ -2826,22 +2519,22 @@
         <v>4017.018</v>
       </c>
       <c r="FG3" t="n">
-        <v>4751.449000000001</v>
+        <v>4751.449</v>
       </c>
       <c r="FH3" t="n">
-        <v>7589.251999999999</v>
+        <v>7589.252</v>
       </c>
       <c r="FI3" t="n">
         <v>4058.197</v>
       </c>
       <c r="FJ3" t="n">
-        <v>4337.539000000001</v>
+        <v>4337.539</v>
       </c>
       <c r="FK3" t="n">
         <v>4727.831</v>
       </c>
       <c r="FL3" t="n">
-        <v>7472.880999999999</v>
+        <v>7472.881</v>
       </c>
       <c r="FM3" t="n">
         <v>4044.669</v>
@@ -2850,7 +2543,7 @@
         <v>4160.069</v>
       </c>
       <c r="FO3" t="n">
-        <v>4694.492999999999</v>
+        <v>4694.493</v>
       </c>
       <c r="FP3" t="n">
         <v>7442.005</v>
@@ -2925,7 +2618,7 @@
         <v>6052.004</v>
       </c>
       <c r="GN3" t="n">
-        <v>8561.485999999999</v>
+        <v>8561.486000000001</v>
       </c>
       <c r="GO3" t="n">
         <v>5988.489</v>
@@ -2960,11 +2653,13 @@
       <c r="GY3" t="n">
         <v>2451.115</v>
       </c>
-      <c r="GZ3" t="s"/>
+      <c r="GZ3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:208">
-      <c r="A4" s="1" t="s">
-        <v>209</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Services: construction - Total economy</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -3438,7 +3133,7 @@
         <v>6.52</v>
       </c>
       <c r="FC4" t="n">
-        <v>6.547999999999999</v>
+        <v>6.548</v>
       </c>
       <c r="FD4" t="n">
         <v>10.527</v>
@@ -3564,7 +3259,7 @@
         <v>43.029</v>
       </c>
       <c r="GS4" t="n">
-        <v>51.93899999999999</v>
+        <v>51.939</v>
       </c>
       <c r="GT4" t="n">
         <v>16.283</v>
@@ -3584,11 +3279,13 @@
       <c r="GY4" t="n">
         <v>14.435</v>
       </c>
-      <c r="GZ4" t="s"/>
+      <c r="GZ4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:208">
-      <c r="A5" s="1" t="s">
-        <v>210</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Services: insurance and pension services - Total economy</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>2.40163</v>
@@ -4050,7 +3747,7 @@
         <v>1040.593</v>
       </c>
       <c r="EY5" t="n">
-        <v>956.4630000000001</v>
+        <v>956.463</v>
       </c>
       <c r="EZ5" t="n">
         <v>804.003</v>
@@ -4059,7 +3756,7 @@
         <v>837.34</v>
       </c>
       <c r="FB5" t="n">
-        <v>868.5269999999999</v>
+        <v>868.527</v>
       </c>
       <c r="FC5" t="n">
         <v>712.311</v>
@@ -4074,7 +3771,7 @@
         <v>872.796</v>
       </c>
       <c r="FG5" t="n">
-        <v>941.6460000000001</v>
+        <v>941.646</v>
       </c>
       <c r="FH5" t="n">
         <v>680.529</v>
@@ -4086,7 +3783,7 @@
         <v>906.178</v>
       </c>
       <c r="FK5" t="n">
-        <v>828.9830000000001</v>
+        <v>828.9829999999999</v>
       </c>
       <c r="FL5" t="n">
         <v>691.165</v>
@@ -4095,16 +3792,16 @@
         <v>707.204</v>
       </c>
       <c r="FN5" t="n">
-        <v>944.4860000000001</v>
+        <v>944.486</v>
       </c>
       <c r="FO5" t="n">
-        <v>814.9910000000001</v>
+        <v>814.991</v>
       </c>
       <c r="FP5" t="n">
-        <v>789.6419999999999</v>
+        <v>789.6420000000001</v>
       </c>
       <c r="FQ5" t="n">
-        <v>826.8660000000001</v>
+        <v>826.866</v>
       </c>
       <c r="FR5" t="n">
         <v>659.0410000000001</v>
@@ -4140,10 +3837,10 @@
         <v>410.936</v>
       </c>
       <c r="GC5" t="n">
-        <v>547.7230000000001</v>
+        <v>547.723</v>
       </c>
       <c r="GD5" t="n">
-        <v>634.4580000000001</v>
+        <v>634.458</v>
       </c>
       <c r="GE5" t="n">
         <v>698.2619999999999</v>
@@ -4161,10 +3858,10 @@
         <v>678.552</v>
       </c>
       <c r="GJ5" t="n">
-        <v>571.6659999999999</v>
+        <v>571.6660000000001</v>
       </c>
       <c r="GK5" t="n">
-        <v>700.7139999999999</v>
+        <v>700.7140000000001</v>
       </c>
       <c r="GL5" t="n">
         <v>733.924</v>
@@ -4208,11 +3905,13 @@
       <c r="GY5" t="n">
         <v>838.433</v>
       </c>
-      <c r="GZ5" t="s"/>
+      <c r="GZ5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:208">
-      <c r="A6" s="1" t="s">
-        <v>211</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Services: financial services - Total economy</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>2.70081</v>
@@ -4527,22 +4226,22 @@
         <v>793.807</v>
       </c>
       <c r="DB6" t="n">
-        <v>792.8969999999999</v>
+        <v>792.897</v>
       </c>
       <c r="DC6" t="n">
-        <v>774.6139999999999</v>
+        <v>774.614</v>
       </c>
       <c r="DD6" t="n">
         <v>740.448</v>
       </c>
       <c r="DE6" t="n">
-        <v>744.8330000000001</v>
+        <v>744.833</v>
       </c>
       <c r="DF6" t="n">
         <v>679.801</v>
       </c>
       <c r="DG6" t="n">
-        <v>667.5210000000001</v>
+        <v>667.521</v>
       </c>
       <c r="DH6" t="n">
         <v>709.807</v>
@@ -4554,7 +4253,7 @@
         <v>855.956</v>
       </c>
       <c r="DK6" t="n">
-        <v>851.9169999999999</v>
+        <v>851.917</v>
       </c>
       <c r="DL6" t="n">
         <v>884.418</v>
@@ -4832,11 +4531,13 @@
       <c r="GY6" t="n">
         <v>2463.738</v>
       </c>
-      <c r="GZ6" t="s"/>
+      <c r="GZ6" t="inlineStr"/>
     </row>
-    <row r="7" spans="1:208">
-      <c r="A7" s="1" t="s">
-        <v>212</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Services: charges for the use of the intellectual property - Total economy</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>1.03291</v>
@@ -5157,7 +4858,7 @@
         <v>441.389</v>
       </c>
       <c r="DD7" t="n">
-        <v>472.7380000000001</v>
+        <v>472.738</v>
       </c>
       <c r="DE7" t="n">
         <v>536.689</v>
@@ -5178,7 +4879,7 @@
         <v>583.253</v>
       </c>
       <c r="DK7" t="n">
-        <v>609.1519999999999</v>
+        <v>609.152</v>
       </c>
       <c r="DL7" t="n">
         <v>648.976</v>
@@ -5307,7 +5008,7 @@
         <v>1503.745</v>
       </c>
       <c r="FB7" t="n">
-        <v>968.5089999999999</v>
+        <v>968.509</v>
       </c>
       <c r="FC7" t="n">
         <v>1082.095</v>
@@ -5367,22 +5068,22 @@
         <v>1083.489</v>
       </c>
       <c r="FV7" t="n">
-        <v>923.8639999999999</v>
+        <v>923.864</v>
       </c>
       <c r="FW7" t="n">
         <v>1024.465</v>
       </c>
       <c r="FX7" t="n">
-        <v>997.8689999999999</v>
+        <v>997.869</v>
       </c>
       <c r="FY7" t="n">
         <v>949.8049999999999</v>
       </c>
       <c r="FZ7" t="n">
-        <v>861.1460000000001</v>
+        <v>861.146</v>
       </c>
       <c r="GA7" t="n">
-        <v>924.3580000000001</v>
+        <v>924.3579999999999</v>
       </c>
       <c r="GB7" t="n">
         <v>1009.536</v>
@@ -5451,117 +5152,119 @@
         <v>982.6799999999999</v>
       </c>
       <c r="GX7" t="n">
-        <v>951.0319999999999</v>
+        <v>951.032</v>
       </c>
       <c r="GY7" t="n">
         <v>947.2569999999999</v>
       </c>
-      <c r="GZ7" t="s"/>
+      <c r="GZ7" t="inlineStr"/>
     </row>
-    <row r="8" spans="1:208">
-      <c r="A8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
-      <c r="Z8" t="s"/>
-      <c r="AA8" t="s"/>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
-      <c r="AD8" t="s"/>
-      <c r="AE8" t="s"/>
-      <c r="AF8" t="s"/>
-      <c r="AG8" t="s"/>
-      <c r="AH8" t="s"/>
-      <c r="AI8" t="s"/>
-      <c r="AJ8" t="s"/>
-      <c r="AK8" t="s"/>
-      <c r="AL8" t="s"/>
-      <c r="AM8" t="s"/>
-      <c r="AN8" t="s"/>
-      <c r="AO8" t="s"/>
-      <c r="AP8" t="s"/>
-      <c r="AQ8" t="s"/>
-      <c r="AR8" t="s"/>
-      <c r="AS8" t="s"/>
-      <c r="AT8" t="s"/>
-      <c r="AU8" t="s"/>
-      <c r="AV8" t="s"/>
-      <c r="AW8" t="s"/>
-      <c r="AX8" t="s"/>
-      <c r="AY8" t="s"/>
-      <c r="AZ8" t="s"/>
-      <c r="BA8" t="s"/>
-      <c r="BB8" t="s"/>
-      <c r="BC8" t="s"/>
-      <c r="BD8" t="s"/>
-      <c r="BE8" t="s"/>
-      <c r="BF8" t="s"/>
-      <c r="BG8" t="s"/>
-      <c r="BH8" t="s"/>
-      <c r="BI8" t="s"/>
-      <c r="BJ8" t="s"/>
-      <c r="BK8" t="s"/>
-      <c r="BL8" t="s"/>
-      <c r="BM8" t="s"/>
-      <c r="BN8" t="s"/>
-      <c r="BO8" t="s"/>
-      <c r="BP8" t="s"/>
-      <c r="BQ8" t="s"/>
-      <c r="BR8" t="s"/>
-      <c r="BS8" t="s"/>
-      <c r="BT8" t="s"/>
-      <c r="BU8" t="s"/>
-      <c r="BV8" t="s"/>
-      <c r="BW8" t="s"/>
-      <c r="BX8" t="s"/>
-      <c r="BY8" t="s"/>
-      <c r="BZ8" t="s"/>
-      <c r="CA8" t="s"/>
-      <c r="CB8" t="s"/>
-      <c r="CC8" t="s"/>
-      <c r="CD8" t="s"/>
-      <c r="CE8" t="s"/>
-      <c r="CF8" t="s"/>
-      <c r="CG8" t="s"/>
-      <c r="CH8" t="s"/>
-      <c r="CI8" t="s"/>
-      <c r="CJ8" t="s"/>
-      <c r="CK8" t="s"/>
-      <c r="CL8" t="s"/>
-      <c r="CM8" t="s"/>
-      <c r="CN8" t="s"/>
-      <c r="CO8" t="s"/>
-      <c r="CP8" t="s"/>
-      <c r="CQ8" t="s"/>
-      <c r="CR8" t="s"/>
-      <c r="CS8" t="s"/>
-      <c r="CT8" t="s"/>
-      <c r="CU8" t="s"/>
-      <c r="CV8" t="s"/>
-      <c r="CW8" t="s"/>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Services: telecommunications, computer and information services - Total economy</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr"/>
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="inlineStr"/>
+      <c r="CD8" t="inlineStr"/>
+      <c r="CE8" t="inlineStr"/>
+      <c r="CF8" t="inlineStr"/>
+      <c r="CG8" t="inlineStr"/>
+      <c r="CH8" t="inlineStr"/>
+      <c r="CI8" t="inlineStr"/>
+      <c r="CJ8" t="inlineStr"/>
+      <c r="CK8" t="inlineStr"/>
+      <c r="CL8" t="inlineStr"/>
+      <c r="CM8" t="inlineStr"/>
+      <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr"/>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr"/>
+      <c r="CW8" t="inlineStr"/>
       <c r="CX8" t="n">
         <v>284.624</v>
       </c>
@@ -5880,11 +5583,13 @@
       <c r="GY8" t="n">
         <v>2796.8</v>
       </c>
-      <c r="GZ8" t="s"/>
+      <c r="GZ8" t="inlineStr"/>
     </row>
-    <row r="9" spans="1:208">
-      <c r="A9" s="1" t="s">
-        <v>214</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Services: other business services - Total economy</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>63.74909</v>
@@ -6232,7 +5937,7 @@
         <v>3748.257</v>
       </c>
       <c r="DM9" t="n">
-        <v>4266.585999999999</v>
+        <v>4266.586</v>
       </c>
       <c r="DN9" t="n">
         <v>3283.714</v>
@@ -6313,10 +6018,10 @@
         <v>4853.937</v>
       </c>
       <c r="EN9" t="n">
-        <v>4517.842000000001</v>
+        <v>4517.842</v>
       </c>
       <c r="EO9" t="n">
-        <v>5278.308000000001</v>
+        <v>5278.308</v>
       </c>
       <c r="EP9" t="n">
         <v>5474.725</v>
@@ -6328,7 +6033,7 @@
         <v>5273.326</v>
       </c>
       <c r="ES9" t="n">
-        <v>6160.531999999999</v>
+        <v>6160.532</v>
       </c>
       <c r="ET9" t="n">
         <v>6124.964</v>
@@ -6352,7 +6057,7 @@
         <v>4977.236</v>
       </c>
       <c r="FA9" t="n">
-        <v>5359.085999999999</v>
+        <v>5359.086</v>
       </c>
       <c r="FB9" t="n">
         <v>4728.762</v>
@@ -6382,7 +6087,7 @@
         <v>4310.75</v>
       </c>
       <c r="FK9" t="n">
-        <v>5113.079000000001</v>
+        <v>5113.079</v>
       </c>
       <c r="FL9" t="n">
         <v>5281.561</v>
@@ -6394,7 +6099,7 @@
         <v>4386.695</v>
       </c>
       <c r="FO9" t="n">
-        <v>4899.670999999999</v>
+        <v>4899.671</v>
       </c>
       <c r="FP9" t="n">
         <v>4934.688</v>
@@ -6439,7 +6144,7 @@
         <v>6523.78</v>
       </c>
       <c r="GD9" t="n">
-        <v>4674.050999999999</v>
+        <v>4674.051</v>
       </c>
       <c r="GE9" t="n">
         <v>5463.609</v>
@@ -6448,7 +6153,7 @@
         <v>5275.989</v>
       </c>
       <c r="GG9" t="n">
-        <v>6885.013000000001</v>
+        <v>6885.013</v>
       </c>
       <c r="GH9" t="n">
         <v>5054.129</v>
@@ -6469,7 +6174,7 @@
         <v>6340.932</v>
       </c>
       <c r="GN9" t="n">
-        <v>5995.876999999999</v>
+        <v>5995.877</v>
       </c>
       <c r="GO9" t="n">
         <v>8323.663</v>
@@ -6484,10 +6189,10 @@
         <v>5900.529</v>
       </c>
       <c r="GS9" t="n">
-        <v>8405.443000000001</v>
+        <v>8405.442999999999</v>
       </c>
       <c r="GT9" t="n">
-        <v>5558.090999999999</v>
+        <v>5558.091</v>
       </c>
       <c r="GU9" t="n">
         <v>5566.58</v>
@@ -6496,7 +6201,7 @@
         <v>5077.464</v>
       </c>
       <c r="GW9" t="n">
-        <v>7971.741999999999</v>
+        <v>7971.742</v>
       </c>
       <c r="GX9" t="n">
         <v>5940.956</v>
@@ -6504,11 +6209,13 @@
       <c r="GY9" t="n">
         <v>6481.188</v>
       </c>
-      <c r="GZ9" t="s"/>
+      <c r="GZ9" t="inlineStr"/>
     </row>
-    <row r="10" spans="1:208">
-      <c r="A10" s="1" t="s">
-        <v>215</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Services: personal, cultural and recreational services - Total economy</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>3.09874</v>
@@ -6970,7 +6677,7 @@
         <v>133.986</v>
       </c>
       <c r="EY10" t="n">
-        <v>98.12700000000001</v>
+        <v>98.127</v>
       </c>
       <c r="EZ10" t="n">
         <v>133.657</v>
@@ -7021,7 +6728,7 @@
         <v>74.23999999999999</v>
       </c>
       <c r="FP10" t="n">
-        <v>94.34200000000001</v>
+        <v>94.342</v>
       </c>
       <c r="FQ10" t="n">
         <v>143.835</v>
@@ -7036,7 +6743,7 @@
         <v>76.015</v>
       </c>
       <c r="FU10" t="n">
-        <v>92.49700000000001</v>
+        <v>92.497</v>
       </c>
       <c r="FV10" t="n">
         <v>136.348</v>
@@ -7054,7 +6761,7 @@
         <v>102.76</v>
       </c>
       <c r="GA10" t="n">
-        <v>74.42399999999999</v>
+        <v>74.42400000000001</v>
       </c>
       <c r="GB10" t="n">
         <v>57.158</v>
@@ -7063,7 +6770,7 @@
         <v>190.03</v>
       </c>
       <c r="GD10" t="n">
-        <v>88.38600000000001</v>
+        <v>88.386</v>
       </c>
       <c r="GE10" t="n">
         <v>52.853</v>
@@ -7108,7 +6815,7 @@
         <v>59.322</v>
       </c>
       <c r="GS10" t="n">
-        <v>94.51799999999999</v>
+        <v>94.518</v>
       </c>
       <c r="GT10" t="n">
         <v>43.757</v>
@@ -7128,11 +6835,13 @@
       <c r="GY10" t="n">
         <v>51.374</v>
       </c>
-      <c r="GZ10" t="s"/>
+      <c r="GZ10" t="inlineStr"/>
     </row>
-    <row r="11" spans="1:208">
-      <c r="A11" s="1" t="s">
-        <v>216</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Services: government goods and services n.i.e. - Total economy</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>8.263310000000001</v>
@@ -7462,13 +7171,13 @@
         <v>52.494</v>
       </c>
       <c r="DG11" t="n">
-        <v>66.96600000000001</v>
+        <v>66.96599999999999</v>
       </c>
       <c r="DH11" t="n">
         <v>80.02800000000001</v>
       </c>
       <c r="DI11" t="n">
-        <v>51.43899999999999</v>
+        <v>51.439</v>
       </c>
       <c r="DJ11" t="n">
         <v>86.90600000000001</v>
@@ -7594,7 +7303,7 @@
         <v>547.498</v>
       </c>
       <c r="EY11" t="n">
-        <v>423.8680000000001</v>
+        <v>423.868</v>
       </c>
       <c r="EZ11" t="n">
         <v>306.721</v>
@@ -7651,7 +7360,7 @@
         <v>506.345</v>
       </c>
       <c r="FR11" t="n">
-        <v>348.1369999999999</v>
+        <v>348.137</v>
       </c>
       <c r="FS11" t="n">
         <v>687.1369999999999</v>
@@ -7693,7 +7402,7 @@
         <v>254.85</v>
       </c>
       <c r="GF11" t="n">
-        <v>518.7719999999999</v>
+        <v>518.772</v>
       </c>
       <c r="GG11" t="n">
         <v>531.631</v>
@@ -7732,7 +7441,7 @@
         <v>398.24</v>
       </c>
       <c r="GS11" t="n">
-        <v>357.0719999999999</v>
+        <v>357.072</v>
       </c>
       <c r="GT11" t="n">
         <v>323.741</v>
@@ -7752,11 +7461,13 @@
       <c r="GY11" t="n">
         <v>213.181</v>
       </c>
-      <c r="GZ11" t="s"/>
+      <c r="GZ11" t="inlineStr"/>
     </row>
-    <row r="12" spans="1:208">
-      <c r="A12" s="1" t="s">
-        <v>217</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Debits - Services - Total economy</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>237.21648</v>
@@ -8376,11 +8087,13 @@
       <c r="GY12" t="n">
         <v>21437.843</v>
       </c>
-      <c r="GZ12" t="s"/>
+      <c r="GZ12" t="inlineStr"/>
     </row>
-    <row r="13" spans="1:208">
-      <c r="A13" s="1" t="s">
-        <v>218</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Services: transport - Total economy</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>82.11665000000001</v>
@@ -9000,11 +8713,13 @@
       <c r="GY13" t="n">
         <v>2386.744</v>
       </c>
-      <c r="GZ13" t="s"/>
+      <c r="GZ13" t="inlineStr"/>
     </row>
-    <row r="14" spans="1:208">
-      <c r="A14" s="1" t="s">
-        <v>219</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Services: travel - Total economy</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>80.05082</v>
@@ -9478,7 +9193,7 @@
         <v>4799.471</v>
       </c>
       <c r="FC14" t="n">
-        <v>7588.468000000001</v>
+        <v>7588.468</v>
       </c>
       <c r="FD14" t="n">
         <v>11121.98</v>
@@ -9490,7 +9205,7 @@
         <v>4945.145</v>
       </c>
       <c r="FG14" t="n">
-        <v>8141.925999999999</v>
+        <v>8141.926</v>
       </c>
       <c r="FH14" t="n">
         <v>10658.746</v>
@@ -9624,11 +9339,13 @@
       <c r="GY14" t="n">
         <v>2827.316</v>
       </c>
-      <c r="GZ14" t="s"/>
+      <c r="GZ14" t="inlineStr"/>
     </row>
-    <row r="15" spans="1:208">
-      <c r="A15" s="1" t="s">
-        <v>220</v>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Services: construction - Total economy</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -10093,7 +9810,7 @@
         <v>35.883</v>
       </c>
       <c r="EZ15" t="n">
-        <v>54.71100000000001</v>
+        <v>54.711</v>
       </c>
       <c r="FA15" t="n">
         <v>70.898</v>
@@ -10162,7 +9879,7 @@
         <v>73.313</v>
       </c>
       <c r="FW15" t="n">
-        <v>76.90100000000001</v>
+        <v>76.901</v>
       </c>
       <c r="FX15" t="n">
         <v>108.12</v>
@@ -10248,11 +9965,13 @@
       <c r="GY15" t="n">
         <v>69.13</v>
       </c>
-      <c r="GZ15" t="s"/>
+      <c r="GZ15" t="inlineStr"/>
     </row>
-    <row r="16" spans="1:208">
-      <c r="A16" s="1" t="s">
-        <v>221</v>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Services: insurance and pension services - Total economy</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>2.11359</v>
@@ -10714,7 +10433,7 @@
         <v>353.47</v>
       </c>
       <c r="EY16" t="n">
-        <v>705.6030000000001</v>
+        <v>705.603</v>
       </c>
       <c r="EZ16" t="n">
         <v>476.621</v>
@@ -10872,11 +10591,13 @@
       <c r="GY16" t="n">
         <v>237.383</v>
       </c>
-      <c r="GZ16" t="s"/>
+      <c r="GZ16" t="inlineStr"/>
     </row>
-    <row r="17" spans="1:208">
-      <c r="A17" s="1" t="s">
-        <v>222</v>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Services: financial services - Total economy</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0.85149</v>
@@ -11194,7 +10915,7 @@
         <v>315.889</v>
       </c>
       <c r="DC17" t="n">
-        <v>350.6130000000001</v>
+        <v>350.613</v>
       </c>
       <c r="DD17" t="n">
         <v>358.187</v>
@@ -11338,13 +11059,13 @@
         <v>453.379</v>
       </c>
       <c r="EY17" t="n">
-        <v>563.5409999999999</v>
+        <v>563.5410000000001</v>
       </c>
       <c r="EZ17" t="n">
-        <v>433.8630000000001</v>
+        <v>433.863</v>
       </c>
       <c r="FA17" t="n">
-        <v>823.6519999999999</v>
+        <v>823.652</v>
       </c>
       <c r="FB17" t="n">
         <v>470.481</v>
@@ -11359,7 +11080,7 @@
         <v>768.4930000000001</v>
       </c>
       <c r="FF17" t="n">
-        <v>733.1060000000001</v>
+        <v>733.106</v>
       </c>
       <c r="FG17" t="n">
         <v>875.015</v>
@@ -11496,11 +11217,13 @@
       <c r="GY17" t="n">
         <v>1787.068</v>
       </c>
-      <c r="GZ17" t="s"/>
+      <c r="GZ17" t="inlineStr"/>
     </row>
-    <row r="18" spans="1:208">
-      <c r="A18" s="1" t="s">
-        <v>223</v>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Services: charges for the use of the intellectual property - Total economy</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -11959,7 +11682,7 @@
         <v>1072</v>
       </c>
       <c r="EX18" t="n">
-        <v>543.8380000000001</v>
+        <v>543.838</v>
       </c>
       <c r="EY18" t="n">
         <v>634.404</v>
@@ -11989,28 +11712,28 @@
         <v>709.852</v>
       </c>
       <c r="FH18" t="n">
-        <v>687.2510000000001</v>
+        <v>687.251</v>
       </c>
       <c r="FI18" t="n">
         <v>885.872</v>
       </c>
       <c r="FJ18" t="n">
-        <v>578.7230000000001</v>
+        <v>578.723</v>
       </c>
       <c r="FK18" t="n">
         <v>695.455</v>
       </c>
       <c r="FL18" t="n">
-        <v>701.1139999999999</v>
+        <v>701.114</v>
       </c>
       <c r="FM18" t="n">
         <v>926.052</v>
       </c>
       <c r="FN18" t="n">
-        <v>601.1469999999999</v>
+        <v>601.147</v>
       </c>
       <c r="FO18" t="n">
-        <v>769.0310000000001</v>
+        <v>769.0309999999999</v>
       </c>
       <c r="FP18" t="n">
         <v>785.237</v>
@@ -12046,19 +11769,19 @@
         <v>637.979</v>
       </c>
       <c r="GA18" t="n">
-        <v>554.4019999999999</v>
+        <v>554.402</v>
       </c>
       <c r="GB18" t="n">
         <v>630.1180000000001</v>
       </c>
       <c r="GC18" t="n">
-        <v>950.1389999999999</v>
+        <v>950.139</v>
       </c>
       <c r="GD18" t="n">
         <v>722.303</v>
       </c>
       <c r="GE18" t="n">
-        <v>601.7959999999999</v>
+        <v>601.796</v>
       </c>
       <c r="GF18" t="n">
         <v>620.7</v>
@@ -12091,13 +11814,13 @@
         <v>1253.815</v>
       </c>
       <c r="GP18" t="n">
-        <v>924.4069999999999</v>
+        <v>924.407</v>
       </c>
       <c r="GQ18" t="n">
         <v>917.311</v>
       </c>
       <c r="GR18" t="n">
-        <v>924.2869999999999</v>
+        <v>924.287</v>
       </c>
       <c r="GS18" t="n">
         <v>1254.657</v>
@@ -12120,112 +11843,114 @@
       <c r="GY18" t="n">
         <v>743.878</v>
       </c>
-      <c r="GZ18" t="s"/>
+      <c r="GZ18" t="inlineStr"/>
     </row>
-    <row r="19" spans="1:208">
-      <c r="A19" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
-      <c r="D19" t="s"/>
-      <c r="E19" t="s"/>
-      <c r="F19" t="s"/>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s"/>
-      <c r="J19" t="s"/>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
-      <c r="M19" t="s"/>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
-      <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
-      <c r="V19" t="s"/>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
-      <c r="Z19" t="s"/>
-      <c r="AA19" t="s"/>
-      <c r="AB19" t="s"/>
-      <c r="AC19" t="s"/>
-      <c r="AD19" t="s"/>
-      <c r="AE19" t="s"/>
-      <c r="AF19" t="s"/>
-      <c r="AG19" t="s"/>
-      <c r="AH19" t="s"/>
-      <c r="AI19" t="s"/>
-      <c r="AJ19" t="s"/>
-      <c r="AK19" t="s"/>
-      <c r="AL19" t="s"/>
-      <c r="AM19" t="s"/>
-      <c r="AN19" t="s"/>
-      <c r="AO19" t="s"/>
-      <c r="AP19" t="s"/>
-      <c r="AQ19" t="s"/>
-      <c r="AR19" t="s"/>
-      <c r="AS19" t="s"/>
-      <c r="AT19" t="s"/>
-      <c r="AU19" t="s"/>
-      <c r="AV19" t="s"/>
-      <c r="AW19" t="s"/>
-      <c r="AX19" t="s"/>
-      <c r="AY19" t="s"/>
-      <c r="AZ19" t="s"/>
-      <c r="BA19" t="s"/>
-      <c r="BB19" t="s"/>
-      <c r="BC19" t="s"/>
-      <c r="BD19" t="s"/>
-      <c r="BE19" t="s"/>
-      <c r="BF19" t="s"/>
-      <c r="BG19" t="s"/>
-      <c r="BH19" t="s"/>
-      <c r="BI19" t="s"/>
-      <c r="BJ19" t="s"/>
-      <c r="BK19" t="s"/>
-      <c r="BL19" t="s"/>
-      <c r="BM19" t="s"/>
-      <c r="BN19" t="s"/>
-      <c r="BO19" t="s"/>
-      <c r="BP19" t="s"/>
-      <c r="BQ19" t="s"/>
-      <c r="BR19" t="s"/>
-      <c r="BS19" t="s"/>
-      <c r="BT19" t="s"/>
-      <c r="BU19" t="s"/>
-      <c r="BV19" t="s"/>
-      <c r="BW19" t="s"/>
-      <c r="BX19" t="s"/>
-      <c r="BY19" t="s"/>
-      <c r="BZ19" t="s"/>
-      <c r="CA19" t="s"/>
-      <c r="CB19" t="s"/>
-      <c r="CC19" t="s"/>
-      <c r="CD19" t="s"/>
-      <c r="CE19" t="s"/>
-      <c r="CF19" t="s"/>
-      <c r="CG19" t="s"/>
-      <c r="CH19" t="s"/>
-      <c r="CI19" t="s"/>
-      <c r="CJ19" t="s"/>
-      <c r="CK19" t="s"/>
-      <c r="CL19" t="s"/>
-      <c r="CM19" t="s"/>
-      <c r="CN19" t="s"/>
-      <c r="CO19" t="s"/>
-      <c r="CP19" t="s"/>
-      <c r="CQ19" t="s"/>
-      <c r="CR19" t="s"/>
-      <c r="CS19" t="s"/>
-      <c r="CT19" t="s"/>
-      <c r="CU19" t="s"/>
-      <c r="CV19" t="s"/>
-      <c r="CW19" t="s"/>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Services: telecommunications, computer and information services - Total economy</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr"/>
+      <c r="BO19" t="inlineStr"/>
+      <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="inlineStr"/>
+      <c r="BV19" t="inlineStr"/>
+      <c r="BW19" t="inlineStr"/>
+      <c r="BX19" t="inlineStr"/>
+      <c r="BY19" t="inlineStr"/>
+      <c r="BZ19" t="inlineStr"/>
+      <c r="CA19" t="inlineStr"/>
+      <c r="CB19" t="inlineStr"/>
+      <c r="CC19" t="inlineStr"/>
+      <c r="CD19" t="inlineStr"/>
+      <c r="CE19" t="inlineStr"/>
+      <c r="CF19" t="inlineStr"/>
+      <c r="CG19" t="inlineStr"/>
+      <c r="CH19" t="inlineStr"/>
+      <c r="CI19" t="inlineStr"/>
+      <c r="CJ19" t="inlineStr"/>
+      <c r="CK19" t="inlineStr"/>
+      <c r="CL19" t="inlineStr"/>
+      <c r="CM19" t="inlineStr"/>
+      <c r="CN19" t="inlineStr"/>
+      <c r="CO19" t="inlineStr"/>
+      <c r="CP19" t="inlineStr"/>
+      <c r="CQ19" t="inlineStr"/>
+      <c r="CR19" t="inlineStr"/>
+      <c r="CS19" t="inlineStr"/>
+      <c r="CT19" t="inlineStr"/>
+      <c r="CU19" t="inlineStr"/>
+      <c r="CV19" t="inlineStr"/>
+      <c r="CW19" t="inlineStr"/>
       <c r="CX19" t="n">
         <v>165.592</v>
       </c>
@@ -12254,7 +11979,7 @@
         <v>518.558</v>
       </c>
       <c r="DG19" t="n">
-        <v>544.5880000000001</v>
+        <v>544.588</v>
       </c>
       <c r="DH19" t="n">
         <v>461.443</v>
@@ -12266,7 +11991,7 @@
         <v>578.6319999999999</v>
       </c>
       <c r="DK19" t="n">
-        <v>577.8380000000001</v>
+        <v>577.838</v>
       </c>
       <c r="DL19" t="n">
         <v>588.693</v>
@@ -12544,11 +12269,13 @@
       <c r="GY19" t="n">
         <v>1934.055</v>
       </c>
-      <c r="GZ19" t="s"/>
+      <c r="GZ19" t="inlineStr"/>
     </row>
-    <row r="20" spans="1:208">
-      <c r="A20" s="1" t="s">
-        <v>225</v>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Services: other business services - Total economy</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>50.55445</v>
@@ -13001,13 +12728,13 @@
         <v>5051.863</v>
       </c>
       <c r="EV20" t="n">
-        <v>4351.617999999999</v>
+        <v>4351.618</v>
       </c>
       <c r="EW20" t="n">
-        <v>5858.829000000001</v>
+        <v>5858.829</v>
       </c>
       <c r="EX20" t="n">
-        <v>4481.960999999999</v>
+        <v>4481.961</v>
       </c>
       <c r="EY20" t="n">
         <v>4599.311</v>
@@ -13016,7 +12743,7 @@
         <v>3707.865</v>
       </c>
       <c r="FA20" t="n">
-        <v>5304.066999999999</v>
+        <v>5304.067</v>
       </c>
       <c r="FB20" t="n">
         <v>3161.459</v>
@@ -13034,7 +12761,7 @@
         <v>3500.292</v>
       </c>
       <c r="FG20" t="n">
-        <v>4312.170999999999</v>
+        <v>4312.171</v>
       </c>
       <c r="FH20" t="n">
         <v>3936.826</v>
@@ -13049,7 +12776,7 @@
         <v>4648.684</v>
       </c>
       <c r="FL20" t="n">
-        <v>4420.840999999999</v>
+        <v>4420.841</v>
       </c>
       <c r="FM20" t="n">
         <v>5819.47</v>
@@ -13064,10 +12791,10 @@
         <v>5122.212</v>
       </c>
       <c r="FQ20" t="n">
-        <v>6453.553000000001</v>
+        <v>6453.553</v>
       </c>
       <c r="FR20" t="n">
-        <v>4453.282999999999</v>
+        <v>4453.283</v>
       </c>
       <c r="FS20" t="n">
         <v>5010.442</v>
@@ -13124,16 +12851,16 @@
         <v>5101.831</v>
       </c>
       <c r="GK20" t="n">
-        <v>6597.369000000001</v>
+        <v>6597.369</v>
       </c>
       <c r="GL20" t="n">
         <v>4699.167</v>
       </c>
       <c r="GM20" t="n">
-        <v>5367.746999999999</v>
+        <v>5367.747</v>
       </c>
       <c r="GN20" t="n">
-        <v>5389.253000000001</v>
+        <v>5389.253</v>
       </c>
       <c r="GO20" t="n">
         <v>7117.96</v>
@@ -13166,13 +12893,15 @@
         <v>5877.057</v>
       </c>
       <c r="GY20" t="n">
-        <v>6105.383000000001</v>
-      </c>
-      <c r="GZ20" t="s"/>
+        <v>6105.383</v>
+      </c>
+      <c r="GZ20" t="inlineStr"/>
     </row>
-    <row r="21" spans="1:208">
-      <c r="A21" s="1" t="s">
-        <v>226</v>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Services: personal, cultural and recreational services - Total economy</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>2.58228</v>
@@ -13493,7 +13222,7 @@
         <v>81.209</v>
       </c>
       <c r="DD21" t="n">
-        <v>98.12700000000001</v>
+        <v>98.127</v>
       </c>
       <c r="DE21" t="n">
         <v>77.825</v>
@@ -13502,7 +13231,7 @@
         <v>59.396</v>
       </c>
       <c r="DG21" t="n">
-        <v>72.22800000000001</v>
+        <v>72.22799999999999</v>
       </c>
       <c r="DH21" t="n">
         <v>110.546</v>
@@ -13520,7 +13249,7 @@
         <v>110.034</v>
       </c>
       <c r="DM21" t="n">
-        <v>89.48299999999999</v>
+        <v>89.483</v>
       </c>
       <c r="DN21" t="n">
         <v>72</v>
@@ -13649,16 +13378,16 @@
         <v>51.161</v>
       </c>
       <c r="FD21" t="n">
-        <v>75.85300000000001</v>
+        <v>75.85299999999999</v>
       </c>
       <c r="FE21" t="n">
         <v>59.6</v>
       </c>
       <c r="FF21" t="n">
-        <v>64.26100000000001</v>
+        <v>64.261</v>
       </c>
       <c r="FG21" t="n">
-        <v>42.23699999999999</v>
+        <v>42.237</v>
       </c>
       <c r="FH21" t="n">
         <v>70.521</v>
@@ -13667,7 +13396,7 @@
         <v>81.208</v>
       </c>
       <c r="FJ21" t="n">
-        <v>46.00899999999999</v>
+        <v>46.009</v>
       </c>
       <c r="FK21" t="n">
         <v>35.843</v>
@@ -13748,7 +13477,7 @@
         <v>71.081</v>
       </c>
       <c r="GK21" t="n">
-        <v>86.87200000000001</v>
+        <v>86.872</v>
       </c>
       <c r="GL21" t="n">
         <v>22.337</v>
@@ -13760,7 +13489,7 @@
         <v>63.893</v>
       </c>
       <c r="GO21" t="n">
-        <v>58.78100000000001</v>
+        <v>58.781</v>
       </c>
       <c r="GP21" t="n">
         <v>25.825</v>
@@ -13792,11 +13521,13 @@
       <c r="GY21" t="n">
         <v>50.128</v>
       </c>
-      <c r="GZ21" t="s"/>
+      <c r="GZ21" t="inlineStr"/>
     </row>
-    <row r="22" spans="1:208">
-      <c r="A22" s="1" t="s">
-        <v>227</v>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Services: government goods and services n.i.e. - Total economy</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>10.84559</v>
@@ -14416,11 +14147,13 @@
       <c r="GY22" t="n">
         <v>309.812</v>
       </c>
-      <c r="GZ22" t="s"/>
+      <c r="GZ22" t="inlineStr"/>
     </row>
-    <row r="23" spans="1:208">
-      <c r="A23" s="1" t="s">
-        <v>228</v>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Credits - Services - Total economy</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>230.66425</v>
@@ -15040,11 +14773,13 @@
       <c r="GY23" t="n">
         <v>17950.045</v>
       </c>
-      <c r="GZ23" t="s"/>
+      <c r="GZ23" t="inlineStr"/>
     </row>
-    <row r="24" spans="1:208">
-      <c r="A24" s="1" t="s">
-        <v>229</v>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Services: transport - Total economy</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>-30.98741</v>
@@ -15353,7 +15088,7 @@
         <v>-508.594</v>
       </c>
       <c r="CZ24" t="n">
-        <v>-566.1759999999999</v>
+        <v>-566.176</v>
       </c>
       <c r="DA24" t="n">
         <v>-572.72</v>
@@ -15368,7 +15103,7 @@
         <v>-583.109</v>
       </c>
       <c r="DE24" t="n">
-        <v>-551.2330000000001</v>
+        <v>-551.2329999999999</v>
       </c>
       <c r="DF24" t="n">
         <v>-558.915</v>
@@ -15383,7 +15118,7 @@
         <v>-601.15</v>
       </c>
       <c r="DJ24" t="n">
-        <v>-667.5419999999999</v>
+        <v>-667.542</v>
       </c>
       <c r="DK24" t="n">
         <v>-551.179</v>
@@ -15410,7 +15145,7 @@
         <v>-1099.383</v>
       </c>
       <c r="DS24" t="n">
-        <v>-973.7689999999999</v>
+        <v>-973.769</v>
       </c>
       <c r="DT24" t="n">
         <v>-1081.268</v>
@@ -15419,7 +15154,7 @@
         <v>-969.825</v>
       </c>
       <c r="DV24" t="n">
-        <v>-777.9989999999999</v>
+        <v>-777.999</v>
       </c>
       <c r="DW24" t="n">
         <v>-1117.907</v>
@@ -15428,7 +15163,7 @@
         <v>-1022.663</v>
       </c>
       <c r="DY24" t="n">
-        <v>-912.9860000000001</v>
+        <v>-912.986</v>
       </c>
       <c r="DZ24" t="n">
         <v>-1033.435</v>
@@ -15664,11 +15399,13 @@
       <c r="GY24" t="n">
         <v>-1921.077</v>
       </c>
-      <c r="GZ24" t="s"/>
+      <c r="GZ24" t="inlineStr"/>
     </row>
-    <row r="25" spans="1:208">
-      <c r="A25" s="1" t="s">
-        <v>230</v>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Services: travel - Total economy</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>39.25072</v>
@@ -16190,10 +15927,10 @@
         <v>1028.403</v>
       </c>
       <c r="FS25" t="n">
-        <v>4429.284000000001</v>
+        <v>4429.284</v>
       </c>
       <c r="FT25" t="n">
-        <v>5348.869000000001</v>
+        <v>5348.869</v>
       </c>
       <c r="FU25" t="n">
         <v>1948.021</v>
@@ -16205,7 +15942,7 @@
         <v>4269.098</v>
       </c>
       <c r="FX25" t="n">
-        <v>5519.911999999999</v>
+        <v>5519.912</v>
       </c>
       <c r="FY25" t="n">
         <v>1885.258</v>
@@ -16217,7 +15954,7 @@
         <v>4714.752</v>
       </c>
       <c r="GB25" t="n">
-        <v>5884.901999999999</v>
+        <v>5884.902</v>
       </c>
       <c r="GC25" t="n">
         <v>1911.359</v>
@@ -16241,7 +15978,7 @@
         <v>4858.548</v>
       </c>
       <c r="GJ25" t="n">
-        <v>6501.933000000001</v>
+        <v>6501.933</v>
       </c>
       <c r="GK25" t="n">
         <v>2123.641</v>
@@ -16265,7 +16002,7 @@
         <v>5642.395</v>
       </c>
       <c r="GR25" t="n">
-        <v>7718.816999999999</v>
+        <v>7718.817</v>
       </c>
       <c r="GS25" t="n">
         <v>2568.327</v>
@@ -16277,7 +16014,7 @@
         <v>423.366</v>
       </c>
       <c r="GV25" t="n">
-        <v>5929.366999999999</v>
+        <v>5929.367</v>
       </c>
       <c r="GW25" t="n">
         <v>891.091</v>
@@ -16288,11 +16025,13 @@
       <c r="GY25" t="n">
         <v>376.2</v>
       </c>
-      <c r="GZ25" t="s"/>
+      <c r="GZ25" t="inlineStr"/>
     </row>
-    <row r="26" spans="1:208">
-      <c r="A26" s="1" t="s">
-        <v>231</v>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Services: construction - Total economy</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -16802,7 +16541,7 @@
         <v>35.83</v>
       </c>
       <c r="FO26" t="n">
-        <v>54.60899999999999</v>
+        <v>54.609</v>
       </c>
       <c r="FP26" t="n">
         <v>73.358</v>
@@ -16811,7 +16550,7 @@
         <v>64.687</v>
       </c>
       <c r="FR26" t="n">
-        <v>52.06399999999999</v>
+        <v>52.064</v>
       </c>
       <c r="FS26" t="n">
         <v>82.09399999999999</v>
@@ -16829,7 +16568,7 @@
         <v>53.418</v>
       </c>
       <c r="FX26" t="n">
-        <v>85.86399999999999</v>
+        <v>85.864</v>
       </c>
       <c r="FY26" t="n">
         <v>96.146</v>
@@ -16838,10 +16577,10 @@
         <v>79.73</v>
       </c>
       <c r="GA26" t="n">
-        <v>98.54799999999999</v>
+        <v>98.548</v>
       </c>
       <c r="GB26" t="n">
-        <v>90.11200000000001</v>
+        <v>90.11199999999999</v>
       </c>
       <c r="GC26" t="n">
         <v>94.196</v>
@@ -16853,7 +16592,7 @@
         <v>64.872</v>
       </c>
       <c r="GF26" t="n">
-        <v>92.23100000000001</v>
+        <v>92.23099999999999</v>
       </c>
       <c r="GG26" t="n">
         <v>113.613</v>
@@ -16880,7 +16619,7 @@
         <v>115.892</v>
       </c>
       <c r="GO26" t="n">
-        <v>64.69800000000001</v>
+        <v>64.69799999999999</v>
       </c>
       <c r="GP26" t="n">
         <v>113.208</v>
@@ -16912,11 +16651,13 @@
       <c r="GY26" t="n">
         <v>54.694</v>
       </c>
-      <c r="GZ26" t="s"/>
+      <c r="GZ26" t="inlineStr"/>
     </row>
-    <row r="27" spans="1:208">
-      <c r="A27" s="1" t="s">
-        <v>232</v>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Services: insurance and pension services - Total economy</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>-0.28804</v>
@@ -17375,7 +17116,7 @@
         <v>-410</v>
       </c>
       <c r="EX27" t="n">
-        <v>-687.1239999999999</v>
+        <v>-687.124</v>
       </c>
       <c r="EY27" t="n">
         <v>-250.86</v>
@@ -17402,7 +17143,7 @@
         <v>-397.315</v>
       </c>
       <c r="FG27" t="n">
-        <v>-479.5069999999999</v>
+        <v>-479.507</v>
       </c>
       <c r="FH27" t="n">
         <v>-215.487</v>
@@ -17411,7 +17152,7 @@
         <v>-456.508</v>
       </c>
       <c r="FJ27" t="n">
-        <v>-539.3380000000001</v>
+        <v>-539.338</v>
       </c>
       <c r="FK27" t="n">
         <v>-424.402</v>
@@ -17483,7 +17224,7 @@
         <v>-250.478</v>
       </c>
       <c r="GH27" t="n">
-        <v>-392.1180000000001</v>
+        <v>-392.118</v>
       </c>
       <c r="GI27" t="n">
         <v>-374.081</v>
@@ -17510,7 +17251,7 @@
         <v>-495.345</v>
       </c>
       <c r="GQ27" t="n">
-        <v>-455.3680000000001</v>
+        <v>-455.368</v>
       </c>
       <c r="GR27" t="n">
         <v>-403.272</v>
@@ -17534,13 +17275,15 @@
         <v>-498.037</v>
       </c>
       <c r="GY27" t="n">
-        <v>-601.0509999999999</v>
-      </c>
-      <c r="GZ27" t="s"/>
+        <v>-601.051</v>
+      </c>
+      <c r="GZ27" t="inlineStr"/>
     </row>
-    <row r="28" spans="1:208">
-      <c r="A28" s="1" t="s">
-        <v>233</v>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Services: financial services - Total economy</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>-1.84932</v>
@@ -17885,10 +17628,10 @@
         <v>-598.525</v>
       </c>
       <c r="DL28" t="n">
-        <v>-696.9010000000001</v>
+        <v>-696.901</v>
       </c>
       <c r="DM28" t="n">
-        <v>-762.6519999999999</v>
+        <v>-762.652</v>
       </c>
       <c r="DN28" t="n">
         <v>-759</v>
@@ -18029,7 +17772,7 @@
         <v>-358.523</v>
       </c>
       <c r="FH28" t="n">
-        <v>-367.4280000000001</v>
+        <v>-367.428</v>
       </c>
       <c r="FI28" t="n">
         <v>-213.064</v>
@@ -18074,16 +17817,16 @@
         <v>-386.674</v>
       </c>
       <c r="FW28" t="n">
-        <v>-544.1669999999999</v>
+        <v>-544.167</v>
       </c>
       <c r="FX28" t="n">
         <v>-587.595</v>
       </c>
       <c r="FY28" t="n">
-        <v>-666.2410000000001</v>
+        <v>-666.241</v>
       </c>
       <c r="FZ28" t="n">
-        <v>-747.8860000000001</v>
+        <v>-747.886</v>
       </c>
       <c r="GA28" t="n">
         <v>-866.085</v>
@@ -18095,10 +17838,10 @@
         <v>-828.025</v>
       </c>
       <c r="GD28" t="n">
-        <v>-708.8580000000001</v>
+        <v>-708.8579999999999</v>
       </c>
       <c r="GE28" t="n">
-        <v>-610.7819999999999</v>
+        <v>-610.782</v>
       </c>
       <c r="GF28" t="n">
         <v>-855.581</v>
@@ -18116,10 +17859,10 @@
         <v>-758.574</v>
       </c>
       <c r="GK28" t="n">
-        <v>-798.6569999999999</v>
+        <v>-798.657</v>
       </c>
       <c r="GL28" t="n">
-        <v>-652.7719999999999</v>
+        <v>-652.772</v>
       </c>
       <c r="GM28" t="n">
         <v>-548.009</v>
@@ -18128,7 +17871,7 @@
         <v>-866.171</v>
       </c>
       <c r="GO28" t="n">
-        <v>-738.9839999999999</v>
+        <v>-738.984</v>
       </c>
       <c r="GP28" t="n">
         <v>-704.88</v>
@@ -18137,13 +17880,13 @@
         <v>-675.347</v>
       </c>
       <c r="GR28" t="n">
-        <v>-717.4889999999999</v>
+        <v>-717.489</v>
       </c>
       <c r="GS28" t="n">
-        <v>-916.9730000000001</v>
+        <v>-916.973</v>
       </c>
       <c r="GT28" t="n">
-        <v>-687.2510000000001</v>
+        <v>-687.251</v>
       </c>
       <c r="GU28" t="n">
         <v>-888.596</v>
@@ -18160,11 +17903,13 @@
       <c r="GY28" t="n">
         <v>-676.67</v>
       </c>
-      <c r="GZ28" t="s"/>
+      <c r="GZ28" t="inlineStr"/>
     </row>
-    <row r="29" spans="1:208">
-      <c r="A29" s="1" t="s">
-        <v>234</v>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Services: charges for the use of the intellectual property - Total economy</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>-1.03291</v>
@@ -18635,7 +18380,7 @@
         <v>-659.133</v>
       </c>
       <c r="FB29" t="n">
-        <v>-566.2959999999999</v>
+        <v>-566.296</v>
       </c>
       <c r="FC29" t="n">
         <v>-595.83</v>
@@ -18647,7 +18392,7 @@
         <v>-435.441</v>
       </c>
       <c r="FF29" t="n">
-        <v>-541.9259999999999</v>
+        <v>-541.926</v>
       </c>
       <c r="FG29" t="n">
         <v>-380.219</v>
@@ -18784,112 +18529,114 @@
       <c r="GY29" t="n">
         <v>-203.379</v>
       </c>
-      <c r="GZ29" t="s"/>
+      <c r="GZ29" t="inlineStr"/>
     </row>
-    <row r="30" spans="1:208">
-      <c r="A30" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
-      <c r="D30" t="s"/>
-      <c r="E30" t="s"/>
-      <c r="F30" t="s"/>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s"/>
-      <c r="J30" t="s"/>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
-      <c r="M30" t="s"/>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
-      <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
-      <c r="V30" t="s"/>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
-      <c r="Z30" t="s"/>
-      <c r="AA30" t="s"/>
-      <c r="AB30" t="s"/>
-      <c r="AC30" t="s"/>
-      <c r="AD30" t="s"/>
-      <c r="AE30" t="s"/>
-      <c r="AF30" t="s"/>
-      <c r="AG30" t="s"/>
-      <c r="AH30" t="s"/>
-      <c r="AI30" t="s"/>
-      <c r="AJ30" t="s"/>
-      <c r="AK30" t="s"/>
-      <c r="AL30" t="s"/>
-      <c r="AM30" t="s"/>
-      <c r="AN30" t="s"/>
-      <c r="AO30" t="s"/>
-      <c r="AP30" t="s"/>
-      <c r="AQ30" t="s"/>
-      <c r="AR30" t="s"/>
-      <c r="AS30" t="s"/>
-      <c r="AT30" t="s"/>
-      <c r="AU30" t="s"/>
-      <c r="AV30" t="s"/>
-      <c r="AW30" t="s"/>
-      <c r="AX30" t="s"/>
-      <c r="AY30" t="s"/>
-      <c r="AZ30" t="s"/>
-      <c r="BA30" t="s"/>
-      <c r="BB30" t="s"/>
-      <c r="BC30" t="s"/>
-      <c r="BD30" t="s"/>
-      <c r="BE30" t="s"/>
-      <c r="BF30" t="s"/>
-      <c r="BG30" t="s"/>
-      <c r="BH30" t="s"/>
-      <c r="BI30" t="s"/>
-      <c r="BJ30" t="s"/>
-      <c r="BK30" t="s"/>
-      <c r="BL30" t="s"/>
-      <c r="BM30" t="s"/>
-      <c r="BN30" t="s"/>
-      <c r="BO30" t="s"/>
-      <c r="BP30" t="s"/>
-      <c r="BQ30" t="s"/>
-      <c r="BR30" t="s"/>
-      <c r="BS30" t="s"/>
-      <c r="BT30" t="s"/>
-      <c r="BU30" t="s"/>
-      <c r="BV30" t="s"/>
-      <c r="BW30" t="s"/>
-      <c r="BX30" t="s"/>
-      <c r="BY30" t="s"/>
-      <c r="BZ30" t="s"/>
-      <c r="CA30" t="s"/>
-      <c r="CB30" t="s"/>
-      <c r="CC30" t="s"/>
-      <c r="CD30" t="s"/>
-      <c r="CE30" t="s"/>
-      <c r="CF30" t="s"/>
-      <c r="CG30" t="s"/>
-      <c r="CH30" t="s"/>
-      <c r="CI30" t="s"/>
-      <c r="CJ30" t="s"/>
-      <c r="CK30" t="s"/>
-      <c r="CL30" t="s"/>
-      <c r="CM30" t="s"/>
-      <c r="CN30" t="s"/>
-      <c r="CO30" t="s"/>
-      <c r="CP30" t="s"/>
-      <c r="CQ30" t="s"/>
-      <c r="CR30" t="s"/>
-      <c r="CS30" t="s"/>
-      <c r="CT30" t="s"/>
-      <c r="CU30" t="s"/>
-      <c r="CV30" t="s"/>
-      <c r="CW30" t="s"/>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Services: telecommunications, computer and information services - Total economy</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="inlineStr"/>
+      <c r="BM30" t="inlineStr"/>
+      <c r="BN30" t="inlineStr"/>
+      <c r="BO30" t="inlineStr"/>
+      <c r="BP30" t="inlineStr"/>
+      <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
+      <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="inlineStr"/>
+      <c r="BU30" t="inlineStr"/>
+      <c r="BV30" t="inlineStr"/>
+      <c r="BW30" t="inlineStr"/>
+      <c r="BX30" t="inlineStr"/>
+      <c r="BY30" t="inlineStr"/>
+      <c r="BZ30" t="inlineStr"/>
+      <c r="CA30" t="inlineStr"/>
+      <c r="CB30" t="inlineStr"/>
+      <c r="CC30" t="inlineStr"/>
+      <c r="CD30" t="inlineStr"/>
+      <c r="CE30" t="inlineStr"/>
+      <c r="CF30" t="inlineStr"/>
+      <c r="CG30" t="inlineStr"/>
+      <c r="CH30" t="inlineStr"/>
+      <c r="CI30" t="inlineStr"/>
+      <c r="CJ30" t="inlineStr"/>
+      <c r="CK30" t="inlineStr"/>
+      <c r="CL30" t="inlineStr"/>
+      <c r="CM30" t="inlineStr"/>
+      <c r="CN30" t="inlineStr"/>
+      <c r="CO30" t="inlineStr"/>
+      <c r="CP30" t="inlineStr"/>
+      <c r="CQ30" t="inlineStr"/>
+      <c r="CR30" t="inlineStr"/>
+      <c r="CS30" t="inlineStr"/>
+      <c r="CT30" t="inlineStr"/>
+      <c r="CU30" t="inlineStr"/>
+      <c r="CV30" t="inlineStr"/>
+      <c r="CW30" t="inlineStr"/>
       <c r="CX30" t="n">
         <v>-119.031</v>
       </c>
@@ -19092,7 +18839,7 @@
         <v>-225.165</v>
       </c>
       <c r="FM30" t="n">
-        <v>-95.45299999999999</v>
+        <v>-95.453</v>
       </c>
       <c r="FN30" t="n">
         <v>-349.758</v>
@@ -19131,7 +18878,7 @@
         <v>114.388</v>
       </c>
       <c r="FZ30" t="n">
-        <v>-722.2139999999999</v>
+        <v>-722.2140000000001</v>
       </c>
       <c r="GA30" t="n">
         <v>-304.953</v>
@@ -19188,19 +18935,19 @@
         <v>-493.986</v>
       </c>
       <c r="GS30" t="n">
-        <v>-755.2489999999999</v>
+        <v>-755.249</v>
       </c>
       <c r="GT30" t="n">
         <v>-1093.358</v>
       </c>
       <c r="GU30" t="n">
-        <v>-601.2769999999999</v>
+        <v>-601.277</v>
       </c>
       <c r="GV30" t="n">
         <v>-774.654</v>
       </c>
       <c r="GW30" t="n">
-        <v>-851.5319999999999</v>
+        <v>-851.532</v>
       </c>
       <c r="GX30" t="n">
         <v>-890.735</v>
@@ -19208,11 +18955,13 @@
       <c r="GY30" t="n">
         <v>-862.745</v>
       </c>
-      <c r="GZ30" t="s"/>
+      <c r="GZ30" t="inlineStr"/>
     </row>
-    <row r="31" spans="1:208">
-      <c r="A31" s="1" t="s">
-        <v>236</v>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Services: other business services - Total economy</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>-13.19464</v>
@@ -19521,7 +19270,7 @@
         <v>-363.675</v>
       </c>
       <c r="CZ31" t="n">
-        <v>-594.6669999999999</v>
+        <v>-594.667</v>
       </c>
       <c r="DA31" t="n">
         <v>-575.153</v>
@@ -19581,10 +19330,10 @@
         <v>-1367.786</v>
       </c>
       <c r="DT31" t="n">
-        <v>-756.8580000000001</v>
+        <v>-756.8579999999999</v>
       </c>
       <c r="DU31" t="n">
-        <v>-859.1160000000001</v>
+        <v>-859.116</v>
       </c>
       <c r="DV31" t="n">
         <v>-785.465</v>
@@ -19596,16 +19345,16 @@
         <v>-1359.275</v>
       </c>
       <c r="DY31" t="n">
-        <v>-870.1669999999999</v>
+        <v>-870.167</v>
       </c>
       <c r="DZ31" t="n">
         <v>-941.827</v>
       </c>
       <c r="EA31" t="n">
-        <v>-776.1610000000001</v>
+        <v>-776.1609999999999</v>
       </c>
       <c r="EB31" t="n">
-        <v>-802.8530000000001</v>
+        <v>-802.853</v>
       </c>
       <c r="EC31" t="n">
         <v>-640.487</v>
@@ -19626,7 +19375,7 @@
         <v>-653.234</v>
       </c>
       <c r="EI31" t="n">
-        <v>-618.0930000000001</v>
+        <v>-618.093</v>
       </c>
       <c r="EJ31" t="n">
         <v>-485.486</v>
@@ -19647,10 +19396,10 @@
         <v>-345.81</v>
       </c>
       <c r="EP31" t="n">
-        <v>-908.6560000000001</v>
+        <v>-908.6559999999999</v>
       </c>
       <c r="EQ31" t="n">
-        <v>-869.2410000000001</v>
+        <v>-869.241</v>
       </c>
       <c r="ER31" t="n">
         <v>-1142.524</v>
@@ -19692,7 +19441,7 @@
         <v>-1751.725</v>
       </c>
       <c r="FE31" t="n">
-        <v>-970.2389999999999</v>
+        <v>-970.239</v>
       </c>
       <c r="FF31" t="n">
         <v>-753.127</v>
@@ -19701,7 +19450,7 @@
         <v>-381.994</v>
       </c>
       <c r="FH31" t="n">
-        <v>-846.3660000000001</v>
+        <v>-846.366</v>
       </c>
       <c r="FI31" t="n">
         <v>-1166.246</v>
@@ -19734,7 +19483,7 @@
         <v>120.536</v>
       </c>
       <c r="FS31" t="n">
-        <v>60.30399999999999</v>
+        <v>60.304</v>
       </c>
       <c r="FT31" t="n">
         <v>161.033</v>
@@ -19764,7 +19513,7 @@
         <v>-752.39</v>
       </c>
       <c r="GC31" t="n">
-        <v>-613.2959999999999</v>
+        <v>-613.296</v>
       </c>
       <c r="GD31" t="n">
         <v>-183.745</v>
@@ -19821,22 +19570,24 @@
         <v>-385.406</v>
       </c>
       <c r="GV31" t="n">
-        <v>68.21600000000001</v>
+        <v>68.21599999999999</v>
       </c>
       <c r="GW31" t="n">
         <v>-369.048</v>
       </c>
       <c r="GX31" t="n">
-        <v>-63.89899999999999</v>
+        <v>-63.899</v>
       </c>
       <c r="GY31" t="n">
         <v>-375.805</v>
       </c>
-      <c r="GZ31" t="s"/>
+      <c r="GZ31" t="inlineStr"/>
     </row>
-    <row r="32" spans="1:208">
-      <c r="A32" s="1" t="s">
-        <v>237</v>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Services: personal, cultural and recreational services - Total economy</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>-0.51646</v>
@@ -20160,13 +19911,13 @@
         <v>-84.494</v>
       </c>
       <c r="DE32" t="n">
-        <v>-88.34299999999999</v>
+        <v>-88.343</v>
       </c>
       <c r="DF32" t="n">
-        <v>-45.85899999999999</v>
+        <v>-45.859</v>
       </c>
       <c r="DG32" t="n">
-        <v>-82.12100000000001</v>
+        <v>-82.121</v>
       </c>
       <c r="DH32" t="n">
         <v>-74.949</v>
@@ -20304,7 +20055,7 @@
         <v>-93.10899999999999</v>
       </c>
       <c r="FA32" t="n">
-        <v>-64.97399999999999</v>
+        <v>-64.974</v>
       </c>
       <c r="FB32" t="n">
         <v>-56.831</v>
@@ -20322,7 +20073,7 @@
         <v>-51.451</v>
       </c>
       <c r="FG32" t="n">
-        <v>-94.62299999999999</v>
+        <v>-94.623</v>
       </c>
       <c r="FH32" t="n">
         <v>-43.692</v>
@@ -20376,10 +20127,10 @@
         <v>-24.072</v>
       </c>
       <c r="FY32" t="n">
-        <v>-92.92299999999999</v>
+        <v>-92.923</v>
       </c>
       <c r="FZ32" t="n">
-        <v>-87.63799999999999</v>
+        <v>-87.63800000000001</v>
       </c>
       <c r="GA32" t="n">
         <v>-42.297</v>
@@ -20430,7 +20181,7 @@
         <v>-46.995</v>
       </c>
       <c r="GQ32" t="n">
-        <v>-43.85100000000001</v>
+        <v>-43.851</v>
       </c>
       <c r="GR32" t="n">
         <v>55.773</v>
@@ -20456,11 +20207,13 @@
       <c r="GY32" t="n">
         <v>-1.246</v>
       </c>
-      <c r="GZ32" t="s"/>
+      <c r="GZ32" t="inlineStr"/>
     </row>
-    <row r="33" spans="1:208">
-      <c r="A33" s="1" t="s">
-        <v>238</v>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Services: government goods and services n.i.e. - Total economy</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>2.58228</v>
@@ -20772,13 +20525,13 @@
         <v>51.14</v>
       </c>
       <c r="DA33" t="n">
-        <v>86.77799999999999</v>
+        <v>86.77800000000001</v>
       </c>
       <c r="DB33" t="n">
         <v>38.218</v>
       </c>
       <c r="DC33" t="n">
-        <v>90.37799999999999</v>
+        <v>90.378</v>
       </c>
       <c r="DD33" t="n">
         <v>25.825</v>
@@ -20790,7 +20543,7 @@
         <v>66.191</v>
       </c>
       <c r="DG33" t="n">
-        <v>85.22200000000001</v>
+        <v>85.22199999999999</v>
       </c>
       <c r="DH33" t="n">
         <v>18.561</v>
@@ -20964,7 +20717,7 @@
         <v>43.052</v>
       </c>
       <c r="FM33" t="n">
-        <v>-389.7619999999999</v>
+        <v>-389.762</v>
       </c>
       <c r="FN33" t="n">
         <v>-270.092</v>
@@ -21080,11 +20833,13 @@
       <c r="GY33" t="n">
         <v>96.631</v>
       </c>
-      <c r="GZ33" t="s"/>
+      <c r="GZ33" t="inlineStr"/>
     </row>
-    <row r="34" spans="1:208">
-      <c r="A34" s="1" t="s">
-        <v>239</v>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>BOP - Balances - Services - Total economy</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>-6.55223</v>
@@ -21420,7 +21175,7 @@
         <v>2147.49</v>
       </c>
       <c r="DI34" t="n">
-        <v>645.0369999999999</v>
+        <v>645.037</v>
       </c>
       <c r="DJ34" t="n">
         <v>-564.46</v>
@@ -21444,7 +21199,7 @@
         <v>1182.662</v>
       </c>
       <c r="DQ34" t="n">
-        <v>-849.7869999999999</v>
+        <v>-849.787</v>
       </c>
       <c r="DR34" t="n">
         <v>-1820.835</v>
@@ -21462,7 +21217,7 @@
         <v>-1952.871</v>
       </c>
       <c r="DW34" t="n">
-        <v>945.2230000000001</v>
+        <v>945.223</v>
       </c>
       <c r="DX34" t="n">
         <v>1580.621</v>
@@ -21516,7 +21271,7 @@
         <v>715.8049999999999</v>
       </c>
       <c r="EO34" t="n">
-        <v>-892.4810000000001</v>
+        <v>-892.481</v>
       </c>
       <c r="EP34" t="n">
         <v>-3347.953</v>
@@ -21534,7 +21289,7 @@
         <v>-4347.769</v>
       </c>
       <c r="EU34" t="n">
-        <v>-811.0419999999999</v>
+        <v>-811.042</v>
       </c>
       <c r="EV34" t="n">
         <v>-922.191</v>
@@ -21570,7 +21325,7 @@
         <v>-3619.142</v>
       </c>
       <c r="FG34" t="n">
-        <v>-758.6510000000001</v>
+        <v>-758.651</v>
       </c>
       <c r="FH34" t="n">
         <v>-1351.855</v>
@@ -21704,7 +21459,7 @@
       <c r="GY34" t="n">
         <v>-3487.798</v>
       </c>
-      <c r="GZ34" t="s"/>
+      <c r="GZ34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/136/BOI/Current Account Services_historical.xlsx
+++ b/data/136/BOI/Current Account Services_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GZ34"/>
+  <dimension ref="A1:HA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,6 +1402,11 @@
           <t>2021-Q3</t>
         </is>
       </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2010,24 +2015,29 @@
         <v>5733.624</v>
       </c>
       <c r="GT2" t="n">
-        <v>5164.987</v>
+        <v>5163.523</v>
       </c>
       <c r="GU2" t="n">
-        <v>3927.779</v>
+        <v>3926.281</v>
       </c>
       <c r="GV2" t="n">
-        <v>3646.944</v>
+        <v>3644.542</v>
       </c>
       <c r="GW2" t="n">
-        <v>3674.265</v>
+        <v>3668.774</v>
       </c>
       <c r="GX2" t="n">
-        <v>3876.269</v>
+        <v>4344.503</v>
       </c>
       <c r="GY2" t="n">
-        <v>4307.821</v>
-      </c>
-      <c r="GZ2" t="inlineStr"/>
+        <v>4824.837</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>5134.174</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>5633.814</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2653,7 +2663,12 @@
       <c r="GY3" t="n">
         <v>2451.115</v>
       </c>
-      <c r="GZ3" t="inlineStr"/>
+      <c r="GZ3" t="n">
+        <v>5277.14</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>3567.551</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3262,24 +3277,29 @@
         <v>51.939</v>
       </c>
       <c r="GT4" t="n">
-        <v>16.283</v>
+        <v>16.202</v>
       </c>
       <c r="GU4" t="n">
-        <v>13.46</v>
+        <v>13.355</v>
       </c>
       <c r="GV4" t="n">
-        <v>8.17</v>
+        <v>8.061999999999999</v>
       </c>
       <c r="GW4" t="n">
-        <v>9.634</v>
+        <v>9.288</v>
       </c>
       <c r="GX4" t="n">
-        <v>8.414999999999999</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="GY4" t="n">
-        <v>14.435</v>
-      </c>
-      <c r="GZ4" t="inlineStr"/>
+        <v>14.419</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>11.263</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>18.684</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3888,24 +3908,29 @@
         <v>657.971</v>
       </c>
       <c r="GT5" t="n">
-        <v>713.174</v>
+        <v>748.032</v>
       </c>
       <c r="GU5" t="n">
-        <v>615.419</v>
+        <v>644.032</v>
       </c>
       <c r="GV5" t="n">
-        <v>610.566</v>
+        <v>631.754</v>
       </c>
       <c r="GW5" t="n">
-        <v>635.246</v>
+        <v>639.0940000000001</v>
       </c>
       <c r="GX5" t="n">
-        <v>784.158</v>
+        <v>790.527</v>
       </c>
       <c r="GY5" t="n">
-        <v>838.433</v>
-      </c>
-      <c r="GZ5" t="inlineStr"/>
+        <v>881.806</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>728.842</v>
+      </c>
+      <c r="HA5" t="n">
+        <v>790.212</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4514,24 +4539,29 @@
         <v>2519.189</v>
       </c>
       <c r="GT6" t="n">
-        <v>2257.379</v>
+        <v>2252.01</v>
       </c>
       <c r="GU6" t="n">
-        <v>2423.93</v>
+        <v>2421.683</v>
       </c>
       <c r="GV6" t="n">
-        <v>2476.991</v>
+        <v>2480.602</v>
       </c>
       <c r="GW6" t="n">
-        <v>2802.964</v>
+        <v>2774.441</v>
       </c>
       <c r="GX6" t="n">
-        <v>2278.193</v>
+        <v>2741.583</v>
       </c>
       <c r="GY6" t="n">
-        <v>2463.738</v>
-      </c>
-      <c r="GZ6" t="inlineStr"/>
+        <v>2866.48</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>2866.397</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>2962.395</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5140,24 +5170,29 @@
         <v>1143.265</v>
       </c>
       <c r="GT7" t="n">
-        <v>979.592</v>
+        <v>972.575</v>
       </c>
       <c r="GU7" t="n">
-        <v>724.6180000000001</v>
+        <v>719.228</v>
       </c>
       <c r="GV7" t="n">
-        <v>893.5549999999999</v>
+        <v>903.806</v>
       </c>
       <c r="GW7" t="n">
-        <v>982.6799999999999</v>
+        <v>1074.012</v>
       </c>
       <c r="GX7" t="n">
-        <v>951.032</v>
+        <v>949.42</v>
       </c>
       <c r="GY7" t="n">
-        <v>947.2569999999999</v>
-      </c>
-      <c r="GZ7" t="inlineStr"/>
+        <v>930.123</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>1097.563</v>
+      </c>
+      <c r="HA7" t="n">
+        <v>1384.739</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5566,24 +5601,29 @@
         <v>2856.008</v>
       </c>
       <c r="GT8" t="n">
-        <v>2770.501</v>
+        <v>2758.47</v>
       </c>
       <c r="GU8" t="n">
-        <v>2449.92</v>
+        <v>2438.619</v>
       </c>
       <c r="GV8" t="n">
-        <v>2551.636</v>
+        <v>2555.097</v>
       </c>
       <c r="GW8" t="n">
-        <v>3053.305</v>
+        <v>3039.214</v>
       </c>
       <c r="GX8" t="n">
-        <v>2648.473</v>
+        <v>2588.133</v>
       </c>
       <c r="GY8" t="n">
-        <v>2796.8</v>
-      </c>
-      <c r="GZ8" t="inlineStr"/>
+        <v>2723.744</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>2789.715</v>
+      </c>
+      <c r="HA8" t="n">
+        <v>3124.825</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6180,36 +6220,41 @@
         <v>8323.663</v>
       </c>
       <c r="GP9" t="n">
-        <v>5672.103</v>
+        <v>5601.629</v>
       </c>
       <c r="GQ9" t="n">
-        <v>6342.089</v>
+        <v>6274.657</v>
       </c>
       <c r="GR9" t="n">
-        <v>5900.529</v>
+        <v>5819.21</v>
       </c>
       <c r="GS9" t="n">
-        <v>8405.442999999999</v>
+        <v>8324.457</v>
       </c>
       <c r="GT9" t="n">
-        <v>5558.091</v>
+        <v>5539.858</v>
       </c>
       <c r="GU9" t="n">
-        <v>5566.58</v>
+        <v>5583.011</v>
       </c>
       <c r="GV9" t="n">
-        <v>5077.464</v>
+        <v>5175.217</v>
       </c>
       <c r="GW9" t="n">
-        <v>7971.742</v>
+        <v>7964.265</v>
       </c>
       <c r="GX9" t="n">
-        <v>5940.956</v>
+        <v>5876.977</v>
       </c>
       <c r="GY9" t="n">
-        <v>6481.188</v>
-      </c>
-      <c r="GZ9" t="inlineStr"/>
+        <v>6581.388</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>6408.626</v>
+      </c>
+      <c r="HA9" t="n">
+        <v>8915.914000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -6818,24 +6863,29 @@
         <v>94.518</v>
       </c>
       <c r="GT10" t="n">
-        <v>43.757</v>
+        <v>43.785</v>
       </c>
       <c r="GU10" t="n">
-        <v>42.376</v>
+        <v>42.573</v>
       </c>
       <c r="GV10" t="n">
-        <v>41.272</v>
+        <v>41.386</v>
       </c>
       <c r="GW10" t="n">
-        <v>65.753</v>
+        <v>64.586</v>
       </c>
       <c r="GX10" t="n">
-        <v>46.43</v>
+        <v>46.617</v>
       </c>
       <c r="GY10" t="n">
-        <v>51.374</v>
-      </c>
-      <c r="GZ10" t="inlineStr"/>
+        <v>52.146</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>94.02200000000001</v>
+      </c>
+      <c r="HA10" t="n">
+        <v>93.973</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -7444,24 +7494,29 @@
         <v>357.072</v>
       </c>
       <c r="GT11" t="n">
-        <v>323.741</v>
+        <v>323.696</v>
       </c>
       <c r="GU11" t="n">
-        <v>197.015</v>
+        <v>197.009</v>
       </c>
       <c r="GV11" t="n">
-        <v>276.44</v>
+        <v>276.032</v>
       </c>
       <c r="GW11" t="n">
-        <v>440.006</v>
+        <v>433.579</v>
       </c>
       <c r="GX11" t="n">
-        <v>346.172</v>
+        <v>345.061</v>
       </c>
       <c r="GY11" t="n">
-        <v>213.181</v>
-      </c>
-      <c r="GZ11" t="inlineStr"/>
+        <v>210.429</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>253.217</v>
+      </c>
+      <c r="HA11" t="n">
+        <v>499.079</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -8058,36 +8113,41 @@
         <v>29130.067</v>
       </c>
       <c r="GP12" t="n">
-        <v>24706.399</v>
+        <v>24635.925</v>
       </c>
       <c r="GQ12" t="n">
-        <v>26723.337</v>
+        <v>26655.904</v>
       </c>
       <c r="GR12" t="n">
-        <v>29471.524</v>
+        <v>29390.205</v>
       </c>
       <c r="GS12" t="n">
-        <v>29184.559</v>
+        <v>29103.574</v>
       </c>
       <c r="GT12" t="n">
-        <v>22747.434</v>
+        <v>22729.449</v>
       </c>
       <c r="GU12" t="n">
-        <v>18168.371</v>
+        <v>18181.071</v>
       </c>
       <c r="GV12" t="n">
-        <v>19471.996</v>
+        <v>19600.753</v>
       </c>
       <c r="GW12" t="n">
-        <v>21806.753</v>
+        <v>21843.536</v>
       </c>
       <c r="GX12" t="n">
-        <v>19103.826</v>
+        <v>19946.256</v>
       </c>
       <c r="GY12" t="n">
-        <v>21437.843</v>
-      </c>
-      <c r="GZ12" t="inlineStr"/>
+        <v>22446.292</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>25564.024</v>
+      </c>
+      <c r="HA12" t="n">
+        <v>28005.454</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -8696,24 +8756,29 @@
         <v>3131.99</v>
       </c>
       <c r="GT13" t="n">
-        <v>2482.028</v>
+        <v>2478.333</v>
       </c>
       <c r="GU13" t="n">
-        <v>2019.422</v>
+        <v>2015.606</v>
       </c>
       <c r="GV13" t="n">
-        <v>2076.992</v>
+        <v>2072.483</v>
       </c>
       <c r="GW13" t="n">
-        <v>2052.855</v>
+        <v>2043.871</v>
       </c>
       <c r="GX13" t="n">
-        <v>2087.813</v>
+        <v>2102.231</v>
       </c>
       <c r="GY13" t="n">
-        <v>2386.744</v>
-      </c>
-      <c r="GZ13" t="inlineStr"/>
+        <v>2419.045</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>2577.235</v>
+      </c>
+      <c r="HA13" t="n">
+        <v>2561.454</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -9339,7 +9404,12 @@
       <c r="GY14" t="n">
         <v>2827.316</v>
       </c>
-      <c r="GZ14" t="inlineStr"/>
+      <c r="GZ14" t="n">
+        <v>11695.683</v>
+      </c>
+      <c r="HA14" t="n">
+        <v>6042.952</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -9948,24 +10018,29 @@
         <v>147.93</v>
       </c>
       <c r="GT15" t="n">
-        <v>80.858</v>
+        <v>80.392</v>
       </c>
       <c r="GU15" t="n">
-        <v>65.693</v>
+        <v>65.26600000000001</v>
       </c>
       <c r="GV15" t="n">
-        <v>45.235</v>
+        <v>44.596</v>
       </c>
       <c r="GW15" t="n">
-        <v>85.765</v>
+        <v>84.893</v>
       </c>
       <c r="GX15" t="n">
-        <v>56.249</v>
+        <v>53.192</v>
       </c>
       <c r="GY15" t="n">
-        <v>69.13</v>
-      </c>
-      <c r="GZ15" t="inlineStr"/>
+        <v>72.714</v>
+      </c>
+      <c r="GZ15" t="n">
+        <v>79.208</v>
+      </c>
+      <c r="HA15" t="n">
+        <v>91.06699999999999</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -10574,24 +10649,29 @@
         <v>276.164</v>
       </c>
       <c r="GT16" t="n">
-        <v>233.5</v>
+        <v>240.844</v>
       </c>
       <c r="GU16" t="n">
-        <v>231.84</v>
+        <v>237.445</v>
       </c>
       <c r="GV16" t="n">
-        <v>214.252</v>
+        <v>222.019</v>
       </c>
       <c r="GW16" t="n">
-        <v>250.683</v>
+        <v>255.422</v>
       </c>
       <c r="GX16" t="n">
-        <v>286.121</v>
+        <v>289.32</v>
       </c>
       <c r="GY16" t="n">
-        <v>237.383</v>
-      </c>
-      <c r="GZ16" t="inlineStr"/>
+        <v>273.242</v>
+      </c>
+      <c r="GZ16" t="n">
+        <v>273.646</v>
+      </c>
+      <c r="HA16" t="n">
+        <v>373.404</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -11200,24 +11280,29 @@
         <v>1602.216</v>
       </c>
       <c r="GT17" t="n">
-        <v>1570.128</v>
+        <v>1657.208</v>
       </c>
       <c r="GU17" t="n">
-        <v>1535.334</v>
+        <v>1622.073</v>
       </c>
       <c r="GV17" t="n">
-        <v>1581.296</v>
+        <v>1673.683</v>
       </c>
       <c r="GW17" t="n">
-        <v>1940.348</v>
+        <v>2028.855</v>
       </c>
       <c r="GX17" t="n">
-        <v>1594.532</v>
+        <v>1673.491</v>
       </c>
       <c r="GY17" t="n">
-        <v>1787.068</v>
-      </c>
-      <c r="GZ17" t="inlineStr"/>
+        <v>1865.745</v>
+      </c>
+      <c r="GZ17" t="n">
+        <v>1710.283</v>
+      </c>
+      <c r="HA17" t="n">
+        <v>1846.495</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -11826,24 +11911,29 @@
         <v>1254.657</v>
       </c>
       <c r="GT18" t="n">
-        <v>837.0700000000001</v>
+        <v>831.7670000000001</v>
       </c>
       <c r="GU18" t="n">
-        <v>840.27</v>
+        <v>833.054</v>
       </c>
       <c r="GV18" t="n">
-        <v>752.579</v>
+        <v>732.4349999999999</v>
       </c>
       <c r="GW18" t="n">
-        <v>1270.45</v>
+        <v>1219.932</v>
       </c>
       <c r="GX18" t="n">
-        <v>666.51</v>
+        <v>860.89</v>
       </c>
       <c r="GY18" t="n">
-        <v>743.878</v>
-      </c>
-      <c r="GZ18" t="inlineStr"/>
+        <v>973.819</v>
+      </c>
+      <c r="GZ18" t="n">
+        <v>1006.626</v>
+      </c>
+      <c r="HA18" t="n">
+        <v>1184.355</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -12252,24 +12342,29 @@
         <v>2100.759</v>
       </c>
       <c r="GT19" t="n">
-        <v>1677.143</v>
+        <v>1671.163</v>
       </c>
       <c r="GU19" t="n">
-        <v>1848.643</v>
+        <v>1832.717</v>
       </c>
       <c r="GV19" t="n">
-        <v>1776.982</v>
+        <v>1773.19</v>
       </c>
       <c r="GW19" t="n">
-        <v>2201.773</v>
+        <v>2225.321</v>
       </c>
       <c r="GX19" t="n">
-        <v>1757.738</v>
+        <v>1783.072</v>
       </c>
       <c r="GY19" t="n">
-        <v>1934.055</v>
-      </c>
-      <c r="GZ19" t="inlineStr"/>
+        <v>1911.54</v>
+      </c>
+      <c r="GZ19" t="n">
+        <v>1894.735</v>
+      </c>
+      <c r="HA19" t="n">
+        <v>2221.382</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -12878,24 +12973,29 @@
         <v>7233.177</v>
       </c>
       <c r="GT20" t="n">
-        <v>4954.649</v>
+        <v>4904.525</v>
       </c>
       <c r="GU20" t="n">
-        <v>5181.174</v>
+        <v>5081.531</v>
       </c>
       <c r="GV20" t="n">
-        <v>5145.68</v>
+        <v>5017.204</v>
       </c>
       <c r="GW20" t="n">
-        <v>7602.694</v>
+        <v>7483.27</v>
       </c>
       <c r="GX20" t="n">
-        <v>5877.057</v>
+        <v>5645.817</v>
       </c>
       <c r="GY20" t="n">
-        <v>6105.383</v>
-      </c>
-      <c r="GZ20" t="inlineStr"/>
+        <v>6253.098</v>
+      </c>
+      <c r="GZ20" t="n">
+        <v>6172.67</v>
+      </c>
+      <c r="HA20" t="n">
+        <v>8132.975</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -13504,24 +13604,29 @@
         <v>81.352</v>
       </c>
       <c r="GT21" t="n">
-        <v>89.039</v>
+        <v>88.456</v>
       </c>
       <c r="GU21" t="n">
-        <v>38.37</v>
+        <v>38.148</v>
       </c>
       <c r="GV21" t="n">
-        <v>66.098</v>
+        <v>65.77</v>
       </c>
       <c r="GW21" t="n">
-        <v>83.66500000000001</v>
+        <v>81.027</v>
       </c>
       <c r="GX21" t="n">
-        <v>35.704</v>
+        <v>38.189</v>
       </c>
       <c r="GY21" t="n">
-        <v>50.128</v>
-      </c>
-      <c r="GZ21" t="inlineStr"/>
+        <v>48.405</v>
+      </c>
+      <c r="GZ21" t="n">
+        <v>85.685</v>
+      </c>
+      <c r="HA21" t="n">
+        <v>83.72</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -14130,24 +14235,29 @@
         <v>180.181</v>
       </c>
       <c r="GT22" t="n">
-        <v>150.28</v>
+        <v>150.133</v>
       </c>
       <c r="GU22" t="n">
-        <v>116.74</v>
+        <v>116.613</v>
       </c>
       <c r="GV22" t="n">
-        <v>193.351</v>
+        <v>192.154</v>
       </c>
       <c r="GW22" t="n">
-        <v>215.799</v>
+        <v>212.686</v>
       </c>
       <c r="GX22" t="n">
-        <v>140.743</v>
+        <v>138.764</v>
       </c>
       <c r="GY22" t="n">
-        <v>309.812</v>
-      </c>
-      <c r="GZ22" t="inlineStr"/>
+        <v>312.329</v>
+      </c>
+      <c r="GZ22" t="n">
+        <v>536.677</v>
+      </c>
+      <c r="HA22" t="n">
+        <v>644.514</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -14756,24 +14866,29 @@
         <v>26641.33</v>
       </c>
       <c r="GT23" t="n">
-        <v>18016.89</v>
+        <v>18074.787</v>
       </c>
       <c r="GU23" t="n">
-        <v>15105.57</v>
+        <v>15103.968</v>
       </c>
       <c r="GV23" t="n">
-        <v>22297.51</v>
+        <v>22281.478</v>
       </c>
       <c r="GW23" t="n">
-        <v>19487.234</v>
+        <v>19468.287</v>
       </c>
       <c r="GX23" t="n">
-        <v>15150.513</v>
+        <v>15330.893</v>
       </c>
       <c r="GY23" t="n">
-        <v>17950.045</v>
-      </c>
-      <c r="GZ23" t="inlineStr"/>
+        <v>18575.239</v>
+      </c>
+      <c r="GZ23" t="n">
+        <v>27568.432</v>
+      </c>
+      <c r="HA23" t="n">
+        <v>25122.127</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -15382,24 +15497,29 @@
         <v>-2601.634</v>
       </c>
       <c r="GT24" t="n">
-        <v>-2682.958</v>
+        <v>-2685.189</v>
       </c>
       <c r="GU24" t="n">
-        <v>-1908.357</v>
+        <v>-1910.675</v>
       </c>
       <c r="GV24" t="n">
-        <v>-1569.952</v>
+        <v>-1572.059</v>
       </c>
       <c r="GW24" t="n">
-        <v>-1621.41</v>
+        <v>-1624.903</v>
       </c>
       <c r="GX24" t="n">
-        <v>-1788.456</v>
+        <v>-2242.272</v>
       </c>
       <c r="GY24" t="n">
-        <v>-1921.077</v>
-      </c>
-      <c r="GZ24" t="inlineStr"/>
+        <v>-2405.792</v>
+      </c>
+      <c r="GZ24" t="n">
+        <v>-2556.94</v>
+      </c>
+      <c r="HA24" t="n">
+        <v>-3072.36</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -16025,7 +16145,12 @@
       <c r="GY25" t="n">
         <v>376.2</v>
       </c>
-      <c r="GZ25" t="inlineStr"/>
+      <c r="GZ25" t="n">
+        <v>6418.543</v>
+      </c>
+      <c r="HA25" t="n">
+        <v>2475.401</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -16634,24 +16759,29 @@
         <v>95.991</v>
       </c>
       <c r="GT26" t="n">
-        <v>64.575</v>
+        <v>64.19</v>
       </c>
       <c r="GU26" t="n">
-        <v>52.233</v>
+        <v>51.911</v>
       </c>
       <c r="GV26" t="n">
-        <v>37.066</v>
+        <v>36.534</v>
       </c>
       <c r="GW26" t="n">
-        <v>76.13200000000001</v>
+        <v>75.605</v>
       </c>
       <c r="GX26" t="n">
-        <v>47.833</v>
+        <v>44.982</v>
       </c>
       <c r="GY26" t="n">
-        <v>54.694</v>
-      </c>
-      <c r="GZ26" t="inlineStr"/>
+        <v>58.295</v>
+      </c>
+      <c r="GZ26" t="n">
+        <v>67.94499999999999</v>
+      </c>
+      <c r="HA26" t="n">
+        <v>72.383</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -17260,24 +17390,29 @@
         <v>-381.807</v>
       </c>
       <c r="GT27" t="n">
-        <v>-479.673</v>
+        <v>-507.188</v>
       </c>
       <c r="GU27" t="n">
-        <v>-383.579</v>
+        <v>-406.587</v>
       </c>
       <c r="GV27" t="n">
-        <v>-396.315</v>
+        <v>-409.735</v>
       </c>
       <c r="GW27" t="n">
-        <v>-384.563</v>
+        <v>-383.673</v>
       </c>
       <c r="GX27" t="n">
-        <v>-498.037</v>
+        <v>-501.208</v>
       </c>
       <c r="GY27" t="n">
-        <v>-601.051</v>
-      </c>
-      <c r="GZ27" t="inlineStr"/>
+        <v>-608.5650000000001</v>
+      </c>
+      <c r="GZ27" t="n">
+        <v>-455.196</v>
+      </c>
+      <c r="HA27" t="n">
+        <v>-416.808</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -17886,24 +18021,29 @@
         <v>-916.973</v>
       </c>
       <c r="GT28" t="n">
-        <v>-687.251</v>
+        <v>-594.802</v>
       </c>
       <c r="GU28" t="n">
-        <v>-888.596</v>
+        <v>-799.61</v>
       </c>
       <c r="GV28" t="n">
-        <v>-895.696</v>
+        <v>-806.92</v>
       </c>
       <c r="GW28" t="n">
-        <v>-862.617</v>
+        <v>-745.587</v>
       </c>
       <c r="GX28" t="n">
-        <v>-683.66</v>
+        <v>-1068.092</v>
       </c>
       <c r="GY28" t="n">
-        <v>-676.67</v>
-      </c>
-      <c r="GZ28" t="inlineStr"/>
+        <v>-1000.734</v>
+      </c>
+      <c r="GZ28" t="n">
+        <v>-1156.114</v>
+      </c>
+      <c r="HA28" t="n">
+        <v>-1115.9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -18512,24 +18652,29 @@
         <v>111.392</v>
       </c>
       <c r="GT29" t="n">
-        <v>-142.522</v>
+        <v>-140.807</v>
       </c>
       <c r="GU29" t="n">
-        <v>115.652</v>
+        <v>113.827</v>
       </c>
       <c r="GV29" t="n">
-        <v>-140.976</v>
+        <v>-171.371</v>
       </c>
       <c r="GW29" t="n">
-        <v>287.769</v>
+        <v>145.921</v>
       </c>
       <c r="GX29" t="n">
-        <v>-284.522</v>
+        <v>-88.53</v>
       </c>
       <c r="GY29" t="n">
-        <v>-203.379</v>
-      </c>
-      <c r="GZ29" t="inlineStr"/>
+        <v>43.696</v>
+      </c>
+      <c r="GZ29" t="n">
+        <v>-90.937</v>
+      </c>
+      <c r="HA29" t="n">
+        <v>-200.384</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -18938,24 +19083,29 @@
         <v>-755.249</v>
       </c>
       <c r="GT30" t="n">
-        <v>-1093.358</v>
+        <v>-1087.307</v>
       </c>
       <c r="GU30" t="n">
-        <v>-601.277</v>
+        <v>-605.902</v>
       </c>
       <c r="GV30" t="n">
-        <v>-774.654</v>
+        <v>-781.907</v>
       </c>
       <c r="GW30" t="n">
-        <v>-851.532</v>
+        <v>-813.893</v>
       </c>
       <c r="GX30" t="n">
-        <v>-890.735</v>
+        <v>-805.061</v>
       </c>
       <c r="GY30" t="n">
-        <v>-862.745</v>
-      </c>
-      <c r="GZ30" t="inlineStr"/>
+        <v>-812.204</v>
+      </c>
+      <c r="GZ30" t="n">
+        <v>-894.98</v>
+      </c>
+      <c r="HA30" t="n">
+        <v>-903.443</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -19552,36 +19702,41 @@
         <v>-1205.703</v>
       </c>
       <c r="GP31" t="n">
-        <v>-577.582</v>
+        <v>-507.107</v>
       </c>
       <c r="GQ31" t="n">
-        <v>-439.778</v>
+        <v>-372.346</v>
       </c>
       <c r="GR31" t="n">
-        <v>-192.743</v>
+        <v>-111.424</v>
       </c>
       <c r="GS31" t="n">
-        <v>-1172.266</v>
+        <v>-1091.281</v>
       </c>
       <c r="GT31" t="n">
-        <v>-603.442</v>
+        <v>-635.332</v>
       </c>
       <c r="GU31" t="n">
-        <v>-385.406</v>
+        <v>-501.48</v>
       </c>
       <c r="GV31" t="n">
-        <v>68.21599999999999</v>
+        <v>-158.013</v>
       </c>
       <c r="GW31" t="n">
-        <v>-369.048</v>
+        <v>-480.996</v>
       </c>
       <c r="GX31" t="n">
-        <v>-63.899</v>
+        <v>-231.161</v>
       </c>
       <c r="GY31" t="n">
-        <v>-375.805</v>
-      </c>
-      <c r="GZ31" t="inlineStr"/>
+        <v>-328.291</v>
+      </c>
+      <c r="GZ31" t="n">
+        <v>-235.957</v>
+      </c>
+      <c r="HA31" t="n">
+        <v>-782.939</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -20190,24 +20345,29 @@
         <v>-13.166</v>
       </c>
       <c r="GT32" t="n">
-        <v>45.282</v>
+        <v>44.67</v>
       </c>
       <c r="GU32" t="n">
-        <v>-4.005</v>
+        <v>-4.425</v>
       </c>
       <c r="GV32" t="n">
-        <v>24.826</v>
+        <v>24.385</v>
       </c>
       <c r="GW32" t="n">
-        <v>17.911</v>
+        <v>16.441</v>
       </c>
       <c r="GX32" t="n">
-        <v>-10.726</v>
+        <v>-8.427</v>
       </c>
       <c r="GY32" t="n">
-        <v>-1.246</v>
-      </c>
-      <c r="GZ32" t="inlineStr"/>
+        <v>-3.741</v>
+      </c>
+      <c r="GZ32" t="n">
+        <v>-8.337</v>
+      </c>
+      <c r="HA32" t="n">
+        <v>-10.253</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -20816,24 +20976,29 @@
         <v>-176.891</v>
       </c>
       <c r="GT33" t="n">
-        <v>-173.461</v>
+        <v>-173.563</v>
       </c>
       <c r="GU33" t="n">
-        <v>-80.27500000000001</v>
+        <v>-80.396</v>
       </c>
       <c r="GV33" t="n">
-        <v>-83.09</v>
+        <v>-83.878</v>
       </c>
       <c r="GW33" t="n">
-        <v>-224.207</v>
+        <v>-220.893</v>
       </c>
       <c r="GX33" t="n">
-        <v>-205.43</v>
+        <v>-206.298</v>
       </c>
       <c r="GY33" t="n">
-        <v>96.631</v>
-      </c>
-      <c r="GZ33" t="inlineStr"/>
+        <v>101.899</v>
+      </c>
+      <c r="GZ33" t="n">
+        <v>283.459</v>
+      </c>
+      <c r="HA33" t="n">
+        <v>145.435</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -21430,36 +21595,41 @@
         <v>-3192.225</v>
       </c>
       <c r="GP34" t="n">
-        <v>-3494.525</v>
+        <v>-3424.051</v>
       </c>
       <c r="GQ34" t="n">
-        <v>1538.351</v>
+        <v>1605.783</v>
       </c>
       <c r="GR34" t="n">
-        <v>3769.739</v>
+        <v>3851.059</v>
       </c>
       <c r="GS34" t="n">
-        <v>-2543.229</v>
+        <v>-2462.244</v>
       </c>
       <c r="GT34" t="n">
-        <v>-4730.544</v>
+        <v>-4654.662</v>
       </c>
       <c r="GU34" t="n">
-        <v>-3062.801</v>
+        <v>-3077.103</v>
       </c>
       <c r="GV34" t="n">
-        <v>2825.514</v>
+        <v>2680.725</v>
       </c>
       <c r="GW34" t="n">
-        <v>-2319.52</v>
+        <v>-2375.249</v>
       </c>
       <c r="GX34" t="n">
-        <v>-3953.312</v>
+        <v>-4615.363</v>
       </c>
       <c r="GY34" t="n">
-        <v>-3487.798</v>
-      </c>
-      <c r="GZ34" t="inlineStr"/>
+        <v>-3871.053</v>
+      </c>
+      <c r="GZ34" t="n">
+        <v>2004.408</v>
+      </c>
+      <c r="HA34" t="n">
+        <v>-2883.327</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
